--- a/Unity/Assets/Config/Excel/DungeonConfig.xlsx
+++ b/Unity/Assets/Config/Excel/DungeonConfig.xlsx
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="211">
   <si>
     <t>Id</t>
   </si>
@@ -175,12 +175,6 @@
   </si>
   <si>
     <t>NpcList</t>
-  </si>
-  <si>
-    <t>CreateMonster</t>
-  </si>
-  <si>
-    <t>MonsterGroup</t>
   </si>
   <si>
     <t>MonsterPosition</t>
@@ -1975,10 +1969,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:S52"/>
+  <dimension ref="C3:Q52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N9" workbookViewId="0">
-      <selection activeCell="K49" sqref="K49"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P$1:P$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1991,11 +1985,10 @@
     <col min="12" max="13" width="26.625" customWidth="1"/>
     <col min="14" max="14" width="73.375" customWidth="1"/>
     <col min="15" max="15" width="87" customWidth="1"/>
-    <col min="16" max="16" width="63.25" customWidth="1"/>
-    <col min="17" max="19" width="23.125" customWidth="1"/>
+    <col min="16" max="17" width="23.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
+    <row r="3" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -2039,16 +2032,10 @@
         <v>13</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="S3" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
+    <row r="4" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
@@ -2094,78 +2081,66 @@
       <c r="Q4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="R4" s="4" t="s">
+    </row>
+    <row r="5" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
+      <c r="C5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
-      <c r="C5" s="4" t="s">
+      <c r="E5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="L5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="4" t="s">
+      <c r="M5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="N5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5" s="4" t="s">
+      <c r="P5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
+      <c r="C6" s="6">
+        <v>10001</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="E6" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="M5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="R5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="S5" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
-      <c r="C6" s="6">
-        <v>10001</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>36</v>
-      </c>
       <c r="F6" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G6" s="7">
         <v>1</v>
@@ -2174,49 +2149,45 @@
         <v>70001910</v>
       </c>
       <c r="I6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="6">
+        <v>10001</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="L6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="6">
-        <v>10001</v>
-      </c>
-      <c r="K6" s="10" t="s">
+      <c r="M6" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="N6" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="M6" s="19" t="s">
+      <c r="O6" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="N6" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="O6" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="P6" s="14"/>
+      <c r="P6" s="6">
+        <v>10001</v>
+      </c>
       <c r="Q6" s="6">
-        <v>0</v>
-      </c>
-      <c r="R6" s="6">
-        <v>10001</v>
-      </c>
-      <c r="S6" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
+    <row r="7" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
       <c r="C7" s="6">
         <v>10002</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G7" s="11">
         <v>3</v>
@@ -2225,49 +2196,45 @@
         <v>70001920</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J7" s="6">
         <v>10001</v>
       </c>
       <c r="K7" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="M7" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="L7" s="10" t="s">
+      <c r="N7" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="M7" s="22" t="s">
+      <c r="O7" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="N7" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="O7" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="P7" s="14"/>
+      <c r="P7" s="6">
+        <v>10001</v>
+      </c>
       <c r="Q7" s="6">
-        <v>0</v>
-      </c>
-      <c r="R7" s="6">
-        <v>10001</v>
-      </c>
-      <c r="S7" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
+    <row r="8" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
       <c r="C8" s="6">
         <v>10003</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G8" s="7">
         <v>5</v>
@@ -2276,49 +2243,45 @@
         <v>70001930</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J8" s="6">
         <v>10001</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M8" s="10">
         <v>1010</v>
       </c>
       <c r="N8" s="20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O8" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="P8" s="14"/>
+        <v>53</v>
+      </c>
+      <c r="P8" s="6">
+        <v>10001</v>
+      </c>
       <c r="Q8" s="6">
-        <v>0</v>
-      </c>
-      <c r="R8" s="6">
-        <v>10001</v>
-      </c>
-      <c r="S8" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
+    <row r="9" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
       <c r="C9" s="6">
         <v>10004</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G9" s="7">
         <v>6</v>
@@ -2327,49 +2290,45 @@
         <v>70001940</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J9" s="6">
         <v>10001</v>
       </c>
       <c r="K9" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="M9" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="L9" s="10" t="s">
+      <c r="N9" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="M9" s="22" t="s">
+      <c r="O9" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="N9" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="O9" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="P9" s="14"/>
+      <c r="P9" s="6">
+        <v>10001</v>
+      </c>
       <c r="Q9" s="6">
-        <v>0</v>
-      </c>
-      <c r="R9" s="6">
-        <v>10001</v>
-      </c>
-      <c r="S9" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
+    <row r="10" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
       <c r="C10" s="6">
         <v>10005</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G10" s="7">
         <v>6</v>
@@ -2378,49 +2337,45 @@
         <v>70001950</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J10" s="6">
         <v>10001</v>
       </c>
       <c r="K10" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M10" s="10">
         <v>1011</v>
       </c>
       <c r="N10" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O10" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="P10" s="14"/>
+        <v>65</v>
+      </c>
+      <c r="P10" s="6">
+        <v>10001</v>
+      </c>
       <c r="Q10" s="6">
-        <v>0</v>
-      </c>
-      <c r="R10" s="6">
-        <v>10001</v>
-      </c>
-      <c r="S10" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
+    <row r="11" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
       <c r="C11" s="6">
         <v>10006</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G11" s="7">
         <v>12</v>
@@ -2429,49 +2384,45 @@
         <v>70001960</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J11" s="6">
         <v>10001</v>
       </c>
       <c r="K11" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M11" s="10">
         <v>1012</v>
       </c>
       <c r="N11" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="O11" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="P11" s="14"/>
+        <v>70</v>
+      </c>
+      <c r="P11" s="6">
+        <v>10001</v>
+      </c>
       <c r="Q11" s="6">
-        <v>0</v>
-      </c>
-      <c r="R11" s="6">
-        <v>10001</v>
-      </c>
-      <c r="S11" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
+    <row r="12" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
       <c r="C12" s="6">
         <v>10007</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G12" s="7">
         <v>8</v>
@@ -2480,49 +2431,45 @@
         <v>70001970</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J12" s="6">
         <v>10001</v>
       </c>
       <c r="K12" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="M12" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="L12" s="10" t="s">
+      <c r="N12" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="M12" s="22" t="s">
+      <c r="O12" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="N12" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="O12" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="P12" s="14"/>
+      <c r="P12" s="6">
+        <v>10001</v>
+      </c>
       <c r="Q12" s="6">
-        <v>0</v>
-      </c>
-      <c r="R12" s="6">
-        <v>10001</v>
-      </c>
-      <c r="S12" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="13" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
+    <row r="13" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
       <c r="C13" s="6">
         <v>10008</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G13" s="7">
         <v>8</v>
@@ -2531,49 +2478,45 @@
         <v>70002910</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J13" s="6">
         <v>10001</v>
       </c>
       <c r="K13" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="M13" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="L13" s="10" t="s">
+      <c r="N13" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="M13" s="22" t="s">
+      <c r="O13" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="N13" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="O13" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="P13" s="14"/>
+      <c r="P13" s="6">
+        <v>10001</v>
+      </c>
       <c r="Q13" s="6">
-        <v>0</v>
-      </c>
-      <c r="R13" s="6">
-        <v>10001</v>
-      </c>
-      <c r="S13" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="14" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
+    <row r="14" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
       <c r="C14" s="6">
         <v>20001</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G14" s="10">
         <v>15</v>
@@ -2582,49 +2525,45 @@
         <v>70002920</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J14" s="6">
         <v>10001</v>
       </c>
       <c r="K14" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="M14" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="L14" s="10" t="s">
+      <c r="N14" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="M14" s="19" t="s">
+      <c r="O14" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="N14" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="O14" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="P14" s="14"/>
+      <c r="P14" s="6">
+        <v>10001</v>
+      </c>
       <c r="Q14" s="6">
-        <v>0</v>
-      </c>
-      <c r="R14" s="6">
-        <v>10001</v>
-      </c>
-      <c r="S14" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="15" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
+    <row r="15" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
       <c r="C15" s="6">
         <v>20002</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G15" s="10">
         <v>20</v>
@@ -2633,49 +2572,45 @@
         <v>70002920</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J15" s="6">
         <v>10001</v>
       </c>
       <c r="K15" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="M15" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="L15" s="10" t="s">
+      <c r="N15" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="M15" s="19" t="s">
+      <c r="O15" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="N15" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="O15" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="P15" s="14"/>
+      <c r="P15" s="6">
+        <v>10001</v>
+      </c>
       <c r="Q15" s="6">
-        <v>0</v>
-      </c>
-      <c r="R15" s="6">
-        <v>10001</v>
-      </c>
-      <c r="S15" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="16" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
+    <row r="16" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
       <c r="C16" s="6">
         <v>20003</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G16" s="10">
         <v>23</v>
@@ -2684,49 +2619,45 @@
         <v>70002930</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J16" s="6">
         <v>10001</v>
       </c>
       <c r="K16" s="15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="M16" s="10">
         <v>2012</v>
       </c>
       <c r="N16" s="20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O16" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="P16" s="14"/>
+        <v>101</v>
+      </c>
+      <c r="P16" s="6">
+        <v>10001</v>
+      </c>
       <c r="Q16" s="6">
-        <v>0</v>
-      </c>
-      <c r="R16" s="6">
-        <v>10001</v>
-      </c>
-      <c r="S16" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="17" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
+    <row r="17" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
       <c r="C17" s="6">
         <v>20004</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G17" s="10">
         <v>25</v>
@@ -2735,49 +2666,45 @@
         <v>70002940</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J17" s="6">
         <v>10001</v>
       </c>
       <c r="K17" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="L17" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="M17" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="L17" s="10" t="s">
+      <c r="N17" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="M17" s="19" t="s">
+      <c r="O17" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="N17" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="O17" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="P17" s="14"/>
+      <c r="P17" s="6">
+        <v>10001</v>
+      </c>
       <c r="Q17" s="6">
-        <v>0</v>
-      </c>
-      <c r="R17" s="6">
-        <v>10001</v>
-      </c>
-      <c r="S17" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="18" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
+    <row r="18" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
       <c r="C18" s="6">
         <v>20005</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G18" s="10">
         <v>27</v>
@@ -2786,45 +2713,41 @@
         <v>70002950</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J18" s="6">
         <v>10001</v>
       </c>
       <c r="K18" s="15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M18" s="10">
         <v>2014</v>
       </c>
       <c r="N18" s="13"/>
       <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
+      <c r="P18" s="6">
+        <v>10001</v>
+      </c>
       <c r="Q18" s="6">
-        <v>0</v>
-      </c>
-      <c r="R18" s="6">
-        <v>10001</v>
-      </c>
-      <c r="S18" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
+    <row r="19" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
       <c r="C19" s="6">
         <v>30001</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G19" s="10">
         <v>30</v>
@@ -2833,47 +2756,43 @@
         <v>70003910</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J19" s="6">
         <v>10001</v>
       </c>
       <c r="K19" s="15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L19" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M19" s="10">
         <v>3002</v>
       </c>
       <c r="N19" s="13"/>
       <c r="O19" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="P19" s="14"/>
+        <v>115</v>
+      </c>
+      <c r="P19" s="6">
+        <v>10001</v>
+      </c>
       <c r="Q19" s="6">
-        <v>0</v>
-      </c>
-      <c r="R19" s="6">
-        <v>10001</v>
-      </c>
-      <c r="S19" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="20" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
+    <row r="20" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
       <c r="C20" s="6">
         <v>30002</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G20" s="10">
         <v>30</v>
@@ -2882,45 +2801,41 @@
         <v>70003920</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J20" s="6">
         <v>10001</v>
       </c>
       <c r="K20" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="L20" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="M20" s="19" t="s">
         <v>119</v>
-      </c>
-      <c r="L20" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="M20" s="19" t="s">
-        <v>121</v>
       </c>
       <c r="N20" s="13"/>
       <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
+      <c r="P20" s="6">
+        <v>10001</v>
+      </c>
       <c r="Q20" s="6">
-        <v>0</v>
-      </c>
-      <c r="R20" s="6">
-        <v>10001</v>
-      </c>
-      <c r="S20" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="21" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
+    <row r="21" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
       <c r="C21" s="6">
         <v>30003</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G21" s="10">
         <v>32</v>
@@ -2929,47 +2844,43 @@
         <v>70003930</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J21" s="6">
         <v>10001</v>
       </c>
       <c r="K21" s="15" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L21" s="10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M21" s="10">
         <v>3012</v>
       </c>
       <c r="N21" s="13"/>
       <c r="O21" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="P21" s="14"/>
+        <v>123</v>
+      </c>
+      <c r="P21" s="6">
+        <v>10001</v>
+      </c>
       <c r="Q21" s="6">
-        <v>0</v>
-      </c>
-      <c r="R21" s="6">
-        <v>10001</v>
-      </c>
-      <c r="S21" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="22" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
+    <row r="22" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
       <c r="C22" s="6">
         <v>30004</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G22" s="10">
         <v>34</v>
@@ -2978,47 +2889,43 @@
         <v>70003940</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J22" s="6">
         <v>10001</v>
       </c>
       <c r="K22" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="M22" s="19" t="s">
         <v>127</v>
-      </c>
-      <c r="L22" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="M22" s="19" t="s">
-        <v>129</v>
       </c>
       <c r="N22" s="13"/>
       <c r="O22" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="P22" s="14"/>
+        <v>128</v>
+      </c>
+      <c r="P22" s="6">
+        <v>10001</v>
+      </c>
       <c r="Q22" s="6">
-        <v>0</v>
-      </c>
-      <c r="R22" s="6">
-        <v>10001</v>
-      </c>
-      <c r="S22" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="23" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
+    <row r="23" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
       <c r="C23" s="6">
         <v>30005</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G23" s="10">
         <v>36</v>
@@ -3027,47 +2934,43 @@
         <v>70003950</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J23" s="6">
         <v>10001</v>
       </c>
       <c r="K23" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="L23" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="M23" s="19" t="s">
         <v>132</v>
-      </c>
-      <c r="L23" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="M23" s="19" t="s">
-        <v>134</v>
       </c>
       <c r="N23" s="13"/>
       <c r="O23" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="P23" s="14"/>
+        <v>133</v>
+      </c>
+      <c r="P23" s="6">
+        <v>10001</v>
+      </c>
       <c r="Q23" s="6">
-        <v>0</v>
-      </c>
-      <c r="R23" s="6">
-        <v>10001</v>
-      </c>
-      <c r="S23" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="24" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
+    <row r="24" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
       <c r="C24" s="6">
         <v>30006</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G24" s="10">
         <v>38</v>
@@ -3076,47 +2979,43 @@
         <v>70003950</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J24" s="6">
         <v>10001</v>
       </c>
       <c r="K24" s="15" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M24" s="10">
         <v>3015</v>
       </c>
       <c r="N24" s="13"/>
       <c r="O24" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="P24" s="14"/>
+        <v>137</v>
+      </c>
+      <c r="P24" s="6">
+        <v>10001</v>
+      </c>
       <c r="Q24" s="6">
-        <v>0</v>
-      </c>
-      <c r="R24" s="6">
-        <v>10001</v>
-      </c>
-      <c r="S24" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
+    <row r="25" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
       <c r="C25" s="6">
         <v>40001</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G25" s="10">
         <v>40</v>
@@ -3125,47 +3024,43 @@
         <v>70004910</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J25" s="6">
         <v>10001</v>
       </c>
       <c r="K25" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="L25" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="M25" s="19" t="s">
         <v>141</v>
-      </c>
-      <c r="L25" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="M25" s="19" t="s">
-        <v>143</v>
       </c>
       <c r="N25" s="13"/>
       <c r="O25" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="P25" s="14"/>
+        <v>142</v>
+      </c>
+      <c r="P25" s="6">
+        <v>10001</v>
+      </c>
       <c r="Q25" s="6">
-        <v>0</v>
-      </c>
-      <c r="R25" s="6">
-        <v>10001</v>
-      </c>
-      <c r="S25" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="26" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
+    <row r="26" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
       <c r="C26" s="6">
         <v>40002</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G26" s="10">
         <v>40</v>
@@ -3174,45 +3069,41 @@
         <v>70004920</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J26" s="6">
         <v>10001</v>
       </c>
       <c r="K26" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="L26" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="M26" s="22" t="s">
         <v>146</v>
-      </c>
-      <c r="L26" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="M26" s="22" t="s">
-        <v>148</v>
       </c>
       <c r="N26" s="17"/>
       <c r="O26" s="14"/>
-      <c r="P26" s="14"/>
+      <c r="P26" s="6">
+        <v>10001</v>
+      </c>
       <c r="Q26" s="6">
-        <v>0</v>
-      </c>
-      <c r="R26" s="6">
-        <v>10001</v>
-      </c>
-      <c r="S26" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="27" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
+    <row r="27" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
       <c r="C27" s="6">
         <v>40003</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G27" s="10">
         <v>42</v>
@@ -3221,47 +3112,43 @@
         <v>70004930</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J27" s="6">
         <v>10001</v>
       </c>
       <c r="K27" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="L27" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="M27" s="22" t="s">
         <v>150</v>
-      </c>
-      <c r="L27" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="M27" s="22" t="s">
-        <v>152</v>
       </c>
       <c r="N27" s="17"/>
       <c r="O27" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="P27" s="14"/>
+        <v>151</v>
+      </c>
+      <c r="P27" s="6">
+        <v>10001</v>
+      </c>
       <c r="Q27" s="6">
-        <v>0</v>
-      </c>
-      <c r="R27" s="6">
-        <v>10001</v>
-      </c>
-      <c r="S27" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="28" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
+    <row r="28" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
       <c r="C28" s="6">
         <v>40004</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G28" s="10">
         <v>44</v>
@@ -3270,47 +3157,43 @@
         <v>70004940</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J28" s="6">
         <v>10001</v>
       </c>
       <c r="K28" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="L28" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="M28" s="22" t="s">
         <v>155</v>
-      </c>
-      <c r="L28" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="M28" s="22" t="s">
-        <v>157</v>
       </c>
       <c r="N28" s="17"/>
       <c r="O28" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="P28" s="14"/>
+        <v>156</v>
+      </c>
+      <c r="P28" s="6">
+        <v>10001</v>
+      </c>
       <c r="Q28" s="6">
-        <v>0</v>
-      </c>
-      <c r="R28" s="6">
-        <v>10001</v>
-      </c>
-      <c r="S28" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="29" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
+    <row r="29" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
       <c r="C29" s="6">
         <v>40005</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G29" s="10">
         <v>44</v>
@@ -3319,45 +3202,41 @@
         <v>70004950</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J29" s="6">
         <v>10001</v>
       </c>
       <c r="K29" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="L29" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="M29" s="10">
         <v>4014</v>
       </c>
       <c r="N29" s="13"/>
       <c r="O29" s="14"/>
-      <c r="P29" s="14"/>
+      <c r="P29" s="6">
+        <v>10001</v>
+      </c>
       <c r="Q29" s="6">
-        <v>0</v>
-      </c>
-      <c r="R29" s="6">
-        <v>10001</v>
-      </c>
-      <c r="S29" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="30" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
+    <row r="30" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
       <c r="C30" s="6">
         <v>40006</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G30" s="10">
         <v>46</v>
@@ -3366,47 +3245,43 @@
         <v>70004950</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J30" s="6">
         <v>10001</v>
       </c>
       <c r="K30" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="L30" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="M30" s="19" t="s">
         <v>164</v>
-      </c>
-      <c r="L30" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="M30" s="19" t="s">
-        <v>166</v>
       </c>
       <c r="N30" s="13"/>
       <c r="O30" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="P30" s="14"/>
+        <v>165</v>
+      </c>
+      <c r="P30" s="6">
+        <v>10001</v>
+      </c>
       <c r="Q30" s="6">
-        <v>0</v>
-      </c>
-      <c r="R30" s="6">
-        <v>10001</v>
-      </c>
-      <c r="S30" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="31" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
+    <row r="31" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
       <c r="C31" s="6">
         <v>40007</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G31" s="10">
         <v>48</v>
@@ -3415,47 +3290,43 @@
         <v>70004950</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J31" s="6">
         <v>10001</v>
       </c>
       <c r="K31" s="15" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="L31" s="10" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M31" s="10">
         <v>4015</v>
       </c>
       <c r="N31" s="13"/>
       <c r="O31" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="P31" s="14"/>
+        <v>169</v>
+      </c>
+      <c r="P31" s="6">
+        <v>10001</v>
+      </c>
       <c r="Q31" s="6">
-        <v>0</v>
-      </c>
-      <c r="R31" s="6">
-        <v>10001</v>
-      </c>
-      <c r="S31" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="32" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
+    <row r="32" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
       <c r="C32" s="6">
         <v>50001</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G32" s="10">
         <v>50</v>
@@ -3464,47 +3335,43 @@
         <v>70002940</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J32" s="6">
         <v>10001</v>
       </c>
       <c r="K32" s="15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L32" s="10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="M32" s="10">
         <v>5002</v>
       </c>
       <c r="N32" s="13"/>
       <c r="O32" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="P32" s="14"/>
+        <v>173</v>
+      </c>
+      <c r="P32" s="6">
+        <v>10001</v>
+      </c>
       <c r="Q32" s="6">
-        <v>0</v>
-      </c>
-      <c r="R32" s="6">
-        <v>10001</v>
-      </c>
-      <c r="S32" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="33" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
+    <row r="33" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
       <c r="C33" s="6">
         <v>50002</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G33" s="10">
         <v>52</v>
@@ -3513,47 +3380,43 @@
         <v>70002950</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J33" s="6">
         <v>10001</v>
       </c>
       <c r="K33" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="L33" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="M33" s="19" t="s">
         <v>177</v>
-      </c>
-      <c r="L33" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="M33" s="19" t="s">
-        <v>179</v>
       </c>
       <c r="N33" s="13"/>
       <c r="O33" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="P33" s="14"/>
+        <v>178</v>
+      </c>
+      <c r="P33" s="6">
+        <v>10001</v>
+      </c>
       <c r="Q33" s="6">
-        <v>0</v>
-      </c>
-      <c r="R33" s="6">
-        <v>10001</v>
-      </c>
-      <c r="S33" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="34" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
+    <row r="34" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
       <c r="C34" s="6">
         <v>50003</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G34" s="10">
         <v>52</v>
@@ -3562,45 +3425,41 @@
         <v>70001910</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J34" s="6">
         <v>10001</v>
       </c>
       <c r="K34" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="L34" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="M34" s="19" t="s">
         <v>182</v>
-      </c>
-      <c r="L34" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="M34" s="19" t="s">
-        <v>184</v>
       </c>
       <c r="N34" s="13"/>
       <c r="O34" s="14"/>
-      <c r="P34" s="14"/>
+      <c r="P34" s="6">
+        <v>10001</v>
+      </c>
       <c r="Q34" s="6">
-        <v>0</v>
-      </c>
-      <c r="R34" s="6">
-        <v>10001</v>
-      </c>
-      <c r="S34" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="35" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
+    <row r="35" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
       <c r="C35" s="6">
         <v>50004</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G35" s="10">
         <v>54</v>
@@ -3609,47 +3468,43 @@
         <v>70001920</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J35" s="6">
         <v>10001</v>
       </c>
       <c r="K35" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="L35" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="M35" s="19" t="s">
         <v>187</v>
-      </c>
-      <c r="L35" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="M35" s="19" t="s">
-        <v>189</v>
       </c>
       <c r="N35" s="13"/>
       <c r="O35" s="21" t="s">
-        <v>190</v>
-      </c>
-      <c r="P35" s="14"/>
+        <v>188</v>
+      </c>
+      <c r="P35" s="6">
+        <v>10001</v>
+      </c>
       <c r="Q35" s="6">
-        <v>0</v>
-      </c>
-      <c r="R35" s="6">
-        <v>10001</v>
-      </c>
-      <c r="S35" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="36" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
+    <row r="36" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
       <c r="C36" s="6">
         <v>50005</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G36" s="10">
         <v>54</v>
@@ -3658,45 +3513,41 @@
         <v>70001930</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J36" s="6">
         <v>10001</v>
       </c>
       <c r="K36" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="L36" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="M36" s="19" t="s">
         <v>192</v>
-      </c>
-      <c r="L36" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="M36" s="19" t="s">
-        <v>194</v>
       </c>
       <c r="N36" s="13"/>
       <c r="O36" s="14"/>
-      <c r="P36" s="14"/>
+      <c r="P36" s="6">
+        <v>10001</v>
+      </c>
       <c r="Q36" s="6">
-        <v>0</v>
-      </c>
-      <c r="R36" s="6">
-        <v>10001</v>
-      </c>
-      <c r="S36" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="37" ht="20.1" customHeight="1" spans="3:19">
+    <row r="37" ht="20.1" customHeight="1" spans="3:17">
       <c r="C37" s="6">
         <v>50006</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G37" s="10">
         <v>54</v>
@@ -3705,45 +3556,41 @@
         <v>70001930</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J37" s="6">
         <v>10001</v>
       </c>
       <c r="K37" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="L37" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="M37" s="19" t="s">
         <v>196</v>
-      </c>
-      <c r="L37" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="M37" s="19" t="s">
-        <v>198</v>
       </c>
       <c r="N37" s="13"/>
       <c r="O37" s="14"/>
-      <c r="P37" s="14"/>
+      <c r="P37" s="6">
+        <v>10001</v>
+      </c>
       <c r="Q37" s="6">
-        <v>0</v>
-      </c>
-      <c r="R37" s="6">
-        <v>10001</v>
-      </c>
-      <c r="S37" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="38" ht="20.1" customHeight="1" spans="3:19">
+    <row r="38" ht="20.1" customHeight="1" spans="3:17">
       <c r="C38" s="6">
         <v>50007</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G38" s="10">
         <v>56</v>
@@ -3752,45 +3599,41 @@
         <v>70001930</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J38" s="6">
         <v>10001</v>
       </c>
       <c r="K38" s="15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M38" s="10">
         <v>5016</v>
       </c>
       <c r="N38" s="13"/>
       <c r="O38" s="14"/>
-      <c r="P38" s="14"/>
+      <c r="P38" s="6">
+        <v>10001</v>
+      </c>
       <c r="Q38" s="6">
-        <v>0</v>
-      </c>
-      <c r="R38" s="6">
-        <v>10001</v>
-      </c>
-      <c r="S38" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="39" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
+    <row r="39" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
       <c r="C39" s="6">
         <v>60001</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G39" s="10">
         <v>60</v>
@@ -3799,43 +3642,39 @@
         <v>70002940</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J39" s="6">
         <v>10001</v>
       </c>
       <c r="K39" s="15" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L39" s="10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="M39" s="10"/>
       <c r="N39" s="13"/>
       <c r="O39" s="14"/>
-      <c r="P39" s="14"/>
+      <c r="P39" s="6">
+        <v>10001</v>
+      </c>
       <c r="Q39" s="6">
-        <v>0</v>
-      </c>
-      <c r="R39" s="6">
-        <v>10001</v>
-      </c>
-      <c r="S39" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="40" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
+    <row r="40" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
       <c r="C40" s="6">
         <v>60002</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G40" s="10">
         <v>61</v>
@@ -3844,43 +3683,39 @@
         <v>70002940</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J40" s="6">
         <v>10001</v>
       </c>
       <c r="K40" s="15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="M40" s="10"/>
       <c r="N40" s="13"/>
       <c r="O40" s="14"/>
-      <c r="P40" s="14"/>
+      <c r="P40" s="6">
+        <v>10001</v>
+      </c>
       <c r="Q40" s="6">
-        <v>0</v>
-      </c>
-      <c r="R40" s="6">
-        <v>10001</v>
-      </c>
-      <c r="S40" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="41" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
+    <row r="41" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
       <c r="C41" s="6">
         <v>100001</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G41" s="10">
         <v>1</v>
@@ -3889,41 +3724,37 @@
         <v>0</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J41" s="6">
         <v>10001</v>
       </c>
       <c r="K41" s="23" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L41" s="10" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="M41" s="10"/>
       <c r="N41" s="13"/>
       <c r="O41" s="14"/>
-      <c r="P41" s="14"/>
-      <c r="Q41" s="6">
-        <v>0</v>
-      </c>
-      <c r="R41" s="6">
-        <v>10001</v>
-      </c>
-      <c r="S41" s="6"/>
-    </row>
-    <row r="42" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
+      <c r="P41" s="6">
+        <v>10001</v>
+      </c>
+      <c r="Q41" s="6"/>
+    </row>
+    <row r="42" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
       <c r="C42" s="6">
         <v>100101</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G42" s="10">
         <v>1</v>
@@ -3932,41 +3763,37 @@
         <v>0</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J42" s="6">
         <v>10001</v>
       </c>
       <c r="K42" s="15" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="L42" s="10" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="M42" s="10"/>
       <c r="N42" s="13"/>
       <c r="O42" s="14"/>
-      <c r="P42" s="14"/>
-      <c r="Q42" s="6">
-        <v>0</v>
-      </c>
-      <c r="R42" s="6">
-        <v>10001</v>
-      </c>
-      <c r="S42" s="6"/>
-    </row>
-    <row r="43" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
+      <c r="P42" s="6">
+        <v>10001</v>
+      </c>
+      <c r="Q42" s="6"/>
+    </row>
+    <row r="43" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
       <c r="C43" s="6">
         <v>100201</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G43" s="10">
         <v>18</v>
@@ -3975,41 +3802,37 @@
         <v>0</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J43" s="6">
         <v>10001</v>
       </c>
       <c r="K43" s="15" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="L43" s="10" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="M43" s="10"/>
       <c r="N43" s="13"/>
       <c r="O43" s="14"/>
-      <c r="P43" s="14"/>
-      <c r="Q43" s="6">
-        <v>0</v>
-      </c>
-      <c r="R43" s="6">
-        <v>10001</v>
-      </c>
-      <c r="S43" s="6"/>
-    </row>
-    <row r="44" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
+      <c r="P43" s="6">
+        <v>10001</v>
+      </c>
+      <c r="Q43" s="6"/>
+    </row>
+    <row r="44" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
       <c r="C44" s="6">
         <v>100301</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G44" s="10">
         <v>30</v>
@@ -4018,41 +3841,37 @@
         <v>0</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J44" s="6">
         <v>10001</v>
       </c>
       <c r="K44" s="15" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="L44" s="10" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="M44" s="10"/>
       <c r="N44" s="13"/>
       <c r="O44" s="14"/>
-      <c r="P44" s="14"/>
-      <c r="Q44" s="6">
-        <v>0</v>
-      </c>
-      <c r="R44" s="6">
-        <v>10001</v>
-      </c>
-      <c r="S44" s="6"/>
-    </row>
-    <row r="45" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
+      <c r="P44" s="6">
+        <v>10001</v>
+      </c>
+      <c r="Q44" s="6"/>
+    </row>
+    <row r="45" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
       <c r="C45" s="6">
         <v>100401</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G45" s="10">
         <v>40</v>
@@ -4061,41 +3880,37 @@
         <v>0</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J45" s="6">
         <v>10001</v>
       </c>
       <c r="K45" s="15" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="L45" s="10" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="M45" s="10"/>
       <c r="N45" s="13"/>
       <c r="O45" s="14"/>
-      <c r="P45" s="14"/>
-      <c r="Q45" s="6">
-        <v>0</v>
-      </c>
-      <c r="R45" s="6">
-        <v>10001</v>
-      </c>
-      <c r="S45" s="6"/>
-    </row>
-    <row r="46" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
+      <c r="P45" s="6">
+        <v>10001</v>
+      </c>
+      <c r="Q45" s="6"/>
+    </row>
+    <row r="46" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
       <c r="C46" s="6">
         <v>100501</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G46" s="10">
         <v>50</v>
@@ -4104,41 +3919,37 @@
         <v>0</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J46" s="6">
         <v>10001</v>
       </c>
       <c r="K46" s="15" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="L46" s="10" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="M46" s="10"/>
       <c r="N46" s="13"/>
       <c r="O46" s="14"/>
-      <c r="P46" s="14"/>
-      <c r="Q46" s="6">
-        <v>0</v>
-      </c>
-      <c r="R46" s="6">
-        <v>10001</v>
-      </c>
-      <c r="S46" s="6"/>
-    </row>
-    <row r="47" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
+      <c r="P46" s="6">
+        <v>10001</v>
+      </c>
+      <c r="Q46" s="6"/>
+    </row>
+    <row r="47" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
       <c r="C47" s="6">
         <v>100601</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G47" s="10">
         <v>60</v>
@@ -4147,28 +3958,24 @@
         <v>0</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J47" s="6">
         <v>10001</v>
       </c>
       <c r="K47" s="15" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="L47" s="10" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="M47" s="10"/>
       <c r="N47" s="13"/>
       <c r="O47" s="14"/>
-      <c r="P47" s="14"/>
-      <c r="Q47" s="6">
-        <v>0</v>
-      </c>
-      <c r="R47" s="6">
-        <v>10001</v>
-      </c>
-      <c r="S47" s="6"/>
+      <c r="P47" s="6">
+        <v>10001</v>
+      </c>
+      <c r="Q47" s="6"/>
     </row>
     <row r="48" ht="20.1" customHeight="1"/>
     <row r="49" ht="20.1" customHeight="1"/>

--- a/Unity/Assets/Config/Excel/DungeonConfig.xlsx
+++ b/Unity/Assets/Config/Excel/DungeonConfig.xlsx
@@ -1,39 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF1C5C3-792C-442F-A3A8-86C512E5FE76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DungeonProto" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="L3" authorId="0">
+    <comment ref="L3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -55,7 +48,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="1">
+    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -83,18 +76,18 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Item_Template" type="4" background="1" refreshedVersion="2" saveData="1">
-    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlFormat="all" htmlTables="1"/>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Item_Template" type="4" refreshedVersion="2" background="1" saveData="1">
+    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="2" name="Item_Template1" type="4" background="1" refreshedVersion="2" saveData="1">
-    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlFormat="all" htmlTables="1"/>
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" name="Item_Template1" type="4" refreshedVersion="2" background="1" saveData="1">
+    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="210">
   <si>
     <t>Id</t>
   </si>
@@ -195,9 +188,6 @@
     <t>double[]</t>
   </si>
   <si>
-    <t>绿林小镇</t>
-  </si>
-  <si>
     <t>jiaowai_3</t>
   </si>
   <si>
@@ -216,12 +206,6 @@
     <t>1002,1004</t>
   </si>
   <si>
-    <t>10002,1009;10003,1010;10004,1001;10005,1011;10006,1012;10007,1013;10008,1014</t>
-  </si>
-  <si>
-    <t>20001001,20001002,20001003,20001004,20001005,20001006,20001007,20001008,20001009,20001011</t>
-  </si>
-  <si>
     <t>矿洞一层</t>
   </si>
   <si>
@@ -727,19 +711,21 @@
   </si>
   <si>
     <t>0,0,729</t>
+  </si>
+  <si>
+    <t>10001</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>洛兰营地</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -769,147 +755,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -923,8 +772,23 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="38">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -945,210 +809,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149937437055574"/>
+        <fgColor theme="0" tint="-0.14990691854609822"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149906918546098"/>
+        <fgColor theme="0" tint="-0.1498764000366222"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149571214941862"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="0" tint="-0.14954069643238624"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1195,7 +873,7 @@
         <color theme="1" tint="0.499984740745262"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.399914548173467"/>
+        <color theme="4" tint="0.39988402966399123"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1223,255 +901,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1504,109 +940,64 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="5" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="5" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="5" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="5" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
-    <cellStyle name="常规 5" xfId="50"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="常规 5" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
       <font>
-        <name val="宋体"/>
-        <scheme val="none"/>
-        <charset val="134"/>
-        <family val="3"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
         <sz val="10"/>
         <color theme="0"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1632,6 +1023,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1668,15 +1062,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="C4:H5" totalsRowShown="0">
-  <autoFilter ref="C4:H5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="C4:H5" totalsRowShown="0">
+  <autoFilter ref="C4:H5" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Id"/>
-    <tableColumn id="2" name="ChapterName"/>
-    <tableColumn id="3" name="Music"/>
-    <tableColumn id="6" name="MapType" dataDxfId="0"/>
-    <tableColumn id="4" name="EnterLv"/>
-    <tableColumn id="5" name="BossIcon"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ChapterName"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Music"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="MapType" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="EnterLv"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BossIcon"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1963,19 +1357,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:Q52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P$1:P$1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="7.5" customWidth="1"/>
     <col min="4" max="6" width="16.75" customWidth="1"/>
@@ -1988,7 +1382,7 @@
     <col min="16" max="17" width="23.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
+    <row r="3" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -2035,7 +1429,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
+    <row r="4" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
@@ -2082,7 +1476,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
+    <row r="5" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="4" t="s">
         <v>29</v>
       </c>
@@ -2129,18 +1523,18 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
+    <row r="6" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="6">
         <v>10001</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>34</v>
-      </c>
       <c r="F6" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G6" s="7">
         <v>1</v>
@@ -2149,25 +1543,25 @@
         <v>70001910</v>
       </c>
       <c r="I6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="6">
+        <v>10001</v>
+      </c>
+      <c r="K6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="J6" s="6">
-        <v>10001</v>
-      </c>
-      <c r="K6" s="10" t="s">
+      <c r="L6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="M6" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="M6" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="N6" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="O6" s="21" t="s">
-        <v>41</v>
+      <c r="N6" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="O6" s="23" t="s">
+        <v>208</v>
       </c>
       <c r="P6" s="6">
         <v>10001</v>
@@ -2176,18 +1570,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
+    <row r="7" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" s="6">
         <v>10002</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G7" s="11">
         <v>3</v>
@@ -2196,25 +1590,25 @@
         <v>70001920</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J7" s="6">
         <v>10001</v>
       </c>
       <c r="K7" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="M7" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="N7" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="L7" s="10" t="s">
+      <c r="O7" s="19" t="s">
         <v>45</v>
-      </c>
-      <c r="M7" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="N7" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="O7" s="21" t="s">
-        <v>48</v>
       </c>
       <c r="P7" s="6">
         <v>10001</v>
@@ -2223,18 +1617,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
+    <row r="8" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="6">
         <v>10003</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G8" s="7">
         <v>5</v>
@@ -2243,25 +1637,25 @@
         <v>70001930</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J8" s="6">
         <v>10001</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="M8" s="10">
         <v>1010</v>
       </c>
-      <c r="N8" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="O8" s="21" t="s">
-        <v>53</v>
+      <c r="N8" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="O8" s="19" t="s">
+        <v>50</v>
       </c>
       <c r="P8" s="6">
         <v>10001</v>
@@ -2270,18 +1664,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
+    <row r="9" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="6">
         <v>10004</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G9" s="7">
         <v>6</v>
@@ -2290,25 +1684,25 @@
         <v>70001940</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J9" s="6">
         <v>10001</v>
       </c>
       <c r="K9" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="M9" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="N9" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="L9" s="10" t="s">
+      <c r="O9" s="19" t="s">
         <v>56</v>
-      </c>
-      <c r="M9" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="N9" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="O9" s="21" t="s">
-        <v>59</v>
       </c>
       <c r="P9" s="6">
         <v>10001</v>
@@ -2317,18 +1711,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
+    <row r="10" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="6">
         <v>10005</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G10" s="7">
         <v>6</v>
@@ -2337,25 +1731,25 @@
         <v>70001950</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J10" s="6">
         <v>10001</v>
       </c>
       <c r="K10" s="15" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="M10" s="10">
         <v>1011</v>
       </c>
-      <c r="N10" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="O10" s="21" t="s">
-        <v>65</v>
+      <c r="N10" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="O10" s="19" t="s">
+        <v>62</v>
       </c>
       <c r="P10" s="6">
         <v>10001</v>
@@ -2364,18 +1758,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
+    <row r="11" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="6">
         <v>10006</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G11" s="7">
         <v>12</v>
@@ -2384,25 +1778,25 @@
         <v>70001960</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J11" s="6">
         <v>10001</v>
       </c>
       <c r="K11" s="15" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M11" s="10">
         <v>1012</v>
       </c>
-      <c r="N11" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="O11" s="21" t="s">
-        <v>70</v>
+      <c r="N11" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="O11" s="19" t="s">
+        <v>67</v>
       </c>
       <c r="P11" s="6">
         <v>10001</v>
@@ -2411,18 +1805,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
+    <row r="12" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="6">
         <v>10007</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G12" s="7">
         <v>8</v>
@@ -2431,25 +1825,25 @@
         <v>70001970</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J12" s="6">
         <v>10001</v>
       </c>
       <c r="K12" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="M12" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="N12" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="L12" s="10" t="s">
+      <c r="O12" s="19" t="s">
         <v>74</v>
-      </c>
-      <c r="M12" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="N12" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="O12" s="21" t="s">
-        <v>77</v>
       </c>
       <c r="P12" s="6">
         <v>10001</v>
@@ -2458,18 +1852,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
+    <row r="13" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="6">
         <v>10008</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G13" s="7">
         <v>8</v>
@@ -2478,25 +1872,25 @@
         <v>70002910</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J13" s="6">
         <v>10001</v>
       </c>
       <c r="K13" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="M13" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="N13" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="L13" s="10" t="s">
+      <c r="O13" s="19" t="s">
         <v>80</v>
-      </c>
-      <c r="M13" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="N13" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="O13" s="21" t="s">
-        <v>83</v>
       </c>
       <c r="P13" s="6">
         <v>10001</v>
@@ -2505,18 +1899,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
+    <row r="14" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="6">
         <v>20001</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G14" s="10">
         <v>15</v>
@@ -2525,25 +1919,25 @@
         <v>70002920</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J14" s="6">
         <v>10001</v>
       </c>
       <c r="K14" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="M14" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="N14" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="L14" s="10" t="s">
+      <c r="O14" s="19" t="s">
         <v>87</v>
-      </c>
-      <c r="M14" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="N14" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="O14" s="21" t="s">
-        <v>90</v>
       </c>
       <c r="P14" s="6">
         <v>10001</v>
@@ -2552,18 +1946,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
+    <row r="15" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" s="6">
         <v>20002</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G15" s="10">
         <v>20</v>
@@ -2572,25 +1966,25 @@
         <v>70002920</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J15" s="6">
         <v>10001</v>
       </c>
       <c r="K15" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="M15" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="N15" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="L15" s="10" t="s">
+      <c r="O15" s="19" t="s">
         <v>93</v>
-      </c>
-      <c r="M15" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="N15" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="O15" s="21" t="s">
-        <v>96</v>
       </c>
       <c r="P15" s="6">
         <v>10001</v>
@@ -2599,18 +1993,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
+    <row r="16" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" s="6">
         <v>20003</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G16" s="10">
         <v>23</v>
@@ -2619,25 +2013,25 @@
         <v>70002930</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J16" s="6">
         <v>10001</v>
       </c>
       <c r="K16" s="15" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="M16" s="10">
         <v>2012</v>
       </c>
-      <c r="N16" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="O16" s="21" t="s">
-        <v>101</v>
+      <c r="N16" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="O16" s="19" t="s">
+        <v>98</v>
       </c>
       <c r="P16" s="6">
         <v>10001</v>
@@ -2646,18 +2040,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
+    <row r="17" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" s="6">
         <v>20004</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G17" s="10">
         <v>25</v>
@@ -2666,25 +2060,25 @@
         <v>70002940</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J17" s="6">
         <v>10001</v>
       </c>
       <c r="K17" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="M17" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="N17" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="L17" s="10" t="s">
+      <c r="O17" s="19" t="s">
         <v>104</v>
-      </c>
-      <c r="M17" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="N17" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="O17" s="21" t="s">
-        <v>107</v>
       </c>
       <c r="P17" s="6">
         <v>10001</v>
@@ -2693,18 +2087,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
+    <row r="18" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="6">
         <v>20005</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G18" s="10">
         <v>27</v>
@@ -2713,16 +2107,16 @@
         <v>70002950</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J18" s="6">
         <v>10001</v>
       </c>
       <c r="K18" s="15" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="M18" s="10">
         <v>2014</v>
@@ -2736,18 +2130,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
+    <row r="19" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="6">
         <v>30001</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G19" s="10">
         <v>30</v>
@@ -2756,23 +2150,23 @@
         <v>70003910</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J19" s="6">
         <v>10001</v>
       </c>
       <c r="K19" s="15" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="L19" s="10" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M19" s="10">
         <v>3002</v>
       </c>
       <c r="N19" s="13"/>
-      <c r="O19" s="21" t="s">
-        <v>115</v>
+      <c r="O19" s="19" t="s">
+        <v>112</v>
       </c>
       <c r="P19" s="6">
         <v>10001</v>
@@ -2781,18 +2175,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
+    <row r="20" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C20" s="6">
         <v>30002</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G20" s="10">
         <v>30</v>
@@ -2801,19 +2195,19 @@
         <v>70003920</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J20" s="6">
         <v>10001</v>
       </c>
       <c r="K20" s="15" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="M20" s="19" t="s">
-        <v>119</v>
+        <v>115</v>
+      </c>
+      <c r="M20" s="17" t="s">
+        <v>116</v>
       </c>
       <c r="N20" s="13"/>
       <c r="O20" s="14"/>
@@ -2824,18 +2218,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
+    <row r="21" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C21" s="6">
         <v>30003</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G21" s="10">
         <v>32</v>
@@ -2844,23 +2238,23 @@
         <v>70003930</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J21" s="6">
         <v>10001</v>
       </c>
       <c r="K21" s="15" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="L21" s="10" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M21" s="10">
         <v>3012</v>
       </c>
       <c r="N21" s="13"/>
-      <c r="O21" s="21" t="s">
-        <v>123</v>
+      <c r="O21" s="19" t="s">
+        <v>120</v>
       </c>
       <c r="P21" s="6">
         <v>10001</v>
@@ -2869,18 +2263,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
+    <row r="22" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C22" s="6">
         <v>30004</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G22" s="10">
         <v>34</v>
@@ -2889,23 +2283,23 @@
         <v>70003940</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J22" s="6">
         <v>10001</v>
       </c>
       <c r="K22" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="M22" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="N22" s="13"/>
+      <c r="O22" s="19" t="s">
         <v>125</v>
-      </c>
-      <c r="L22" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="M22" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="N22" s="13"/>
-      <c r="O22" s="21" t="s">
-        <v>128</v>
       </c>
       <c r="P22" s="6">
         <v>10001</v>
@@ -2914,18 +2308,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
+    <row r="23" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="6">
         <v>30005</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G23" s="10">
         <v>36</v>
@@ -2934,23 +2328,23 @@
         <v>70003950</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J23" s="6">
         <v>10001</v>
       </c>
       <c r="K23" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="L23" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="M23" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="N23" s="13"/>
+      <c r="O23" s="19" t="s">
         <v>130</v>
-      </c>
-      <c r="L23" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="M23" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="N23" s="13"/>
-      <c r="O23" s="21" t="s">
-        <v>133</v>
       </c>
       <c r="P23" s="6">
         <v>10001</v>
@@ -2959,18 +2353,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
+    <row r="24" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C24" s="6">
         <v>30006</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G24" s="10">
         <v>38</v>
@@ -2979,23 +2373,23 @@
         <v>70003950</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J24" s="6">
         <v>10001</v>
       </c>
       <c r="K24" s="15" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="M24" s="10">
         <v>3015</v>
       </c>
       <c r="N24" s="13"/>
-      <c r="O24" s="21" t="s">
-        <v>137</v>
+      <c r="O24" s="19" t="s">
+        <v>134</v>
       </c>
       <c r="P24" s="6">
         <v>10001</v>
@@ -3004,18 +2398,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
+    <row r="25" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25" s="6">
         <v>40001</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G25" s="10">
         <v>40</v>
@@ -3024,23 +2418,23 @@
         <v>70004910</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J25" s="6">
         <v>10001</v>
       </c>
       <c r="K25" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="L25" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="M25" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="N25" s="13"/>
+      <c r="O25" s="19" t="s">
         <v>139</v>
-      </c>
-      <c r="L25" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="M25" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="N25" s="13"/>
-      <c r="O25" s="21" t="s">
-        <v>142</v>
       </c>
       <c r="P25" s="6">
         <v>10001</v>
@@ -3049,18 +2443,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
+    <row r="26" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" s="6">
         <v>40002</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G26" s="10">
         <v>40</v>
@@ -3069,21 +2463,21 @@
         <v>70004920</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J26" s="6">
         <v>10001</v>
       </c>
       <c r="K26" s="15" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="M26" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="N26" s="17"/>
+        <v>142</v>
+      </c>
+      <c r="M26" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="N26" s="16"/>
       <c r="O26" s="14"/>
       <c r="P26" s="6">
         <v>10001</v>
@@ -3092,18 +2486,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
+    <row r="27" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C27" s="6">
         <v>40003</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G27" s="10">
         <v>42</v>
@@ -3112,23 +2506,23 @@
         <v>70004930</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J27" s="6">
         <v>10001</v>
       </c>
       <c r="K27" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="L27" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="M27" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="N27" s="16"/>
+      <c r="O27" s="19" t="s">
         <v>148</v>
-      </c>
-      <c r="L27" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="M27" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="N27" s="17"/>
-      <c r="O27" s="21" t="s">
-        <v>151</v>
       </c>
       <c r="P27" s="6">
         <v>10001</v>
@@ -3137,18 +2531,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
+    <row r="28" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C28" s="6">
         <v>40004</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G28" s="10">
         <v>44</v>
@@ -3157,23 +2551,23 @@
         <v>70004940</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J28" s="6">
         <v>10001</v>
       </c>
       <c r="K28" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="L28" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="M28" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="N28" s="16"/>
+      <c r="O28" s="19" t="s">
         <v>153</v>
-      </c>
-      <c r="L28" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="M28" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="N28" s="17"/>
-      <c r="O28" s="21" t="s">
-        <v>156</v>
       </c>
       <c r="P28" s="6">
         <v>10001</v>
@@ -3182,18 +2576,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
+    <row r="29" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="6">
         <v>40005</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G29" s="10">
         <v>44</v>
@@ -3202,16 +2596,16 @@
         <v>70004950</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J29" s="6">
         <v>10001</v>
       </c>
       <c r="K29" s="15" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L29" s="10" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="M29" s="10">
         <v>4014</v>
@@ -3225,18 +2619,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
+    <row r="30" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C30" s="6">
         <v>40006</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G30" s="10">
         <v>46</v>
@@ -3245,23 +2639,23 @@
         <v>70004950</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J30" s="6">
         <v>10001</v>
       </c>
       <c r="K30" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="L30" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="M30" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="N30" s="13"/>
+      <c r="O30" s="19" t="s">
         <v>162</v>
-      </c>
-      <c r="L30" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="M30" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="N30" s="13"/>
-      <c r="O30" s="21" t="s">
-        <v>165</v>
       </c>
       <c r="P30" s="6">
         <v>10001</v>
@@ -3270,18 +2664,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
+    <row r="31" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C31" s="6">
         <v>40007</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G31" s="10">
         <v>48</v>
@@ -3290,23 +2684,23 @@
         <v>70004950</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J31" s="6">
         <v>10001</v>
       </c>
       <c r="K31" s="15" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="L31" s="10" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="M31" s="10">
         <v>4015</v>
       </c>
       <c r="N31" s="13"/>
-      <c r="O31" s="21" t="s">
-        <v>169</v>
+      <c r="O31" s="19" t="s">
+        <v>166</v>
       </c>
       <c r="P31" s="6">
         <v>10001</v>
@@ -3315,18 +2709,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
+    <row r="32" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C32" s="6">
         <v>50001</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G32" s="10">
         <v>50</v>
@@ -3335,23 +2729,23 @@
         <v>70002940</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J32" s="6">
         <v>10001</v>
       </c>
       <c r="K32" s="15" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="L32" s="10" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="M32" s="10">
         <v>5002</v>
       </c>
       <c r="N32" s="13"/>
-      <c r="O32" s="21" t="s">
-        <v>173</v>
+      <c r="O32" s="19" t="s">
+        <v>170</v>
       </c>
       <c r="P32" s="6">
         <v>10001</v>
@@ -3360,18 +2754,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
+    <row r="33" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C33" s="6">
         <v>50002</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G33" s="10">
         <v>52</v>
@@ -3380,23 +2774,23 @@
         <v>70002950</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J33" s="6">
         <v>10001</v>
       </c>
       <c r="K33" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="L33" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="M33" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="N33" s="13"/>
+      <c r="O33" s="19" t="s">
         <v>175</v>
-      </c>
-      <c r="L33" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="M33" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="N33" s="13"/>
-      <c r="O33" s="21" t="s">
-        <v>178</v>
       </c>
       <c r="P33" s="6">
         <v>10001</v>
@@ -3405,18 +2799,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
+    <row r="34" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C34" s="6">
         <v>50003</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G34" s="10">
         <v>52</v>
@@ -3425,19 +2819,19 @@
         <v>70001910</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J34" s="6">
         <v>10001</v>
       </c>
       <c r="K34" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="L34" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="M34" s="19" t="s">
-        <v>182</v>
+        <v>178</v>
+      </c>
+      <c r="M34" s="17" t="s">
+        <v>179</v>
       </c>
       <c r="N34" s="13"/>
       <c r="O34" s="14"/>
@@ -3448,18 +2842,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
+    <row r="35" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C35" s="6">
         <v>50004</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G35" s="10">
         <v>54</v>
@@ -3468,23 +2862,23 @@
         <v>70001920</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J35" s="6">
         <v>10001</v>
       </c>
       <c r="K35" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="L35" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="M35" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="N35" s="13"/>
+      <c r="O35" s="19" t="s">
         <v>185</v>
-      </c>
-      <c r="L35" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="M35" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="N35" s="13"/>
-      <c r="O35" s="21" t="s">
-        <v>188</v>
       </c>
       <c r="P35" s="6">
         <v>10001</v>
@@ -3493,18 +2887,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
+    <row r="36" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C36" s="6">
         <v>50005</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G36" s="10">
         <v>54</v>
@@ -3513,19 +2907,19 @@
         <v>70001930</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J36" s="6">
         <v>10001</v>
       </c>
       <c r="K36" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="L36" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="M36" s="19" t="s">
-        <v>192</v>
+        <v>187</v>
+      </c>
+      <c r="L36" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="M36" s="17" t="s">
+        <v>189</v>
       </c>
       <c r="N36" s="13"/>
       <c r="O36" s="14"/>
@@ -3536,18 +2930,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" ht="20.1" customHeight="1" spans="3:17">
+    <row r="37" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C37" s="6">
         <v>50006</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G37" s="10">
         <v>54</v>
@@ -3556,19 +2950,19 @@
         <v>70001930</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J37" s="6">
         <v>10001</v>
       </c>
       <c r="K37" s="15" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="L37" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="M37" s="19" t="s">
-        <v>196</v>
+        <v>192</v>
+      </c>
+      <c r="M37" s="17" t="s">
+        <v>193</v>
       </c>
       <c r="N37" s="13"/>
       <c r="O37" s="14"/>
@@ -3579,18 +2973,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" ht="20.1" customHeight="1" spans="3:17">
+    <row r="38" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C38" s="6">
         <v>50007</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G38" s="10">
         <v>56</v>
@@ -3599,16 +2993,16 @@
         <v>70001930</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J38" s="6">
         <v>10001</v>
       </c>
       <c r="K38" s="15" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="M38" s="10">
         <v>5016</v>
@@ -3622,18 +3016,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
+    <row r="39" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C39" s="6">
         <v>60001</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G39" s="10">
         <v>60</v>
@@ -3642,16 +3036,16 @@
         <v>70002940</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J39" s="6">
         <v>10001</v>
       </c>
       <c r="K39" s="15" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="L39" s="10" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="M39" s="10"/>
       <c r="N39" s="13"/>
@@ -3663,18 +3057,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
+    <row r="40" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C40" s="6">
         <v>60002</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G40" s="10">
         <v>61</v>
@@ -3683,16 +3077,16 @@
         <v>70002940</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J40" s="6">
         <v>10001</v>
       </c>
       <c r="K40" s="15" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="M40" s="10"/>
       <c r="N40" s="13"/>
@@ -3704,18 +3098,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
+    <row r="41" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C41" s="6">
         <v>100001</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G41" s="10">
         <v>1</v>
@@ -3724,16 +3118,16 @@
         <v>0</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J41" s="6">
         <v>10001</v>
       </c>
-      <c r="K41" s="23" t="s">
-        <v>208</v>
+      <c r="K41" s="21" t="s">
+        <v>205</v>
       </c>
       <c r="L41" s="10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="M41" s="10"/>
       <c r="N41" s="13"/>
@@ -3743,18 +3137,18 @@
       </c>
       <c r="Q41" s="6"/>
     </row>
-    <row r="42" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
+    <row r="42" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C42" s="6">
         <v>100101</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G42" s="10">
         <v>1</v>
@@ -3763,16 +3157,16 @@
         <v>0</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J42" s="6">
         <v>10001</v>
       </c>
       <c r="K42" s="15" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L42" s="10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="M42" s="10"/>
       <c r="N42" s="13"/>
@@ -3782,18 +3176,18 @@
       </c>
       <c r="Q42" s="6"/>
     </row>
-    <row r="43" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
+    <row r="43" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C43" s="6">
         <v>100201</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G43" s="10">
         <v>18</v>
@@ -3802,16 +3196,16 @@
         <v>0</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J43" s="6">
         <v>10001</v>
       </c>
       <c r="K43" s="15" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L43" s="10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="M43" s="10"/>
       <c r="N43" s="13"/>
@@ -3821,18 +3215,18 @@
       </c>
       <c r="Q43" s="6"/>
     </row>
-    <row r="44" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
+    <row r="44" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C44" s="6">
         <v>100301</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G44" s="10">
         <v>30</v>
@@ -3841,16 +3235,16 @@
         <v>0</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J44" s="6">
         <v>10001</v>
       </c>
       <c r="K44" s="15" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L44" s="10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="M44" s="10"/>
       <c r="N44" s="13"/>
@@ -3860,18 +3254,18 @@
       </c>
       <c r="Q44" s="6"/>
     </row>
-    <row r="45" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
+    <row r="45" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C45" s="6">
         <v>100401</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G45" s="10">
         <v>40</v>
@@ -3880,16 +3274,16 @@
         <v>0</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J45" s="6">
         <v>10001</v>
       </c>
       <c r="K45" s="15" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L45" s="10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="M45" s="10"/>
       <c r="N45" s="13"/>
@@ -3899,18 +3293,18 @@
       </c>
       <c r="Q45" s="6"/>
     </row>
-    <row r="46" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
+    <row r="46" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C46" s="6">
         <v>100501</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G46" s="10">
         <v>50</v>
@@ -3919,16 +3313,16 @@
         <v>0</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J46" s="6">
         <v>10001</v>
       </c>
       <c r="K46" s="15" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L46" s="10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="M46" s="10"/>
       <c r="N46" s="13"/>
@@ -3938,18 +3332,18 @@
       </c>
       <c r="Q46" s="6"/>
     </row>
-    <row r="47" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
+    <row r="47" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C47" s="6">
         <v>100601</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G47" s="10">
         <v>60</v>
@@ -3958,16 +3352,16 @@
         <v>0</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J47" s="6">
         <v>10001</v>
       </c>
       <c r="K47" s="15" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L47" s="10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="M47" s="10"/>
       <c r="N47" s="13"/>
@@ -3977,18 +3371,18 @@
       </c>
       <c r="Q47" s="6"/>
     </row>
-    <row r="48" ht="20.1" customHeight="1"/>
-    <row r="49" ht="20.1" customHeight="1"/>
-    <row r="50" ht="20.1" customHeight="1"/>
-    <row r="51" ht="20.1" customHeight="1"/>
-    <row r="52" ht="20.1" customHeight="1"/>
+    <row r="48" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/DungeonConfig.xlsx
+++ b/Unity/Assets/Config/Excel/DungeonConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF1C5C3-792C-442F-A3A8-86C512E5FE76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3BA120E-E2BC-4E5D-97E1-05FB5CA88E67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,6 +33,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -41,6 +42,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -55,6 +57,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -63,6 +66,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -737,6 +741,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -745,12 +750,14 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -758,6 +765,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -765,11 +773,13 @@
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -907,7 +917,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -968,9 +978,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="6" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="5" borderId="5" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1365,8 +1372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:Q52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1527,7 +1534,7 @@
       <c r="C6" s="6">
         <v>10001</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="23" t="s">
         <v>209</v>
       </c>
       <c r="E6" s="8" t="s">
@@ -1557,10 +1564,10 @@
       <c r="M6" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="N6" s="22" t="s">
-        <v>208</v>
-      </c>
-      <c r="O6" s="23" t="s">
+      <c r="N6" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="O6" s="22" t="s">
         <v>208</v>
       </c>
       <c r="P6" s="6">

--- a/Unity/Assets/Config/Excel/DungeonConfig.xlsx
+++ b/Unity/Assets/Config/Excel/DungeonConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3BA120E-E2BC-4E5D-97E1-05FB5CA88E67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6610945F-C718-4DC9-8DAD-3A4EF7F06661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -201,15 +201,6 @@
     <t>在人们眼中,这片区域有很深的危险,亲爱的冒险者,你准备好开始探险了嘛</t>
   </si>
   <si>
-    <t>720,127,-257</t>
-  </si>
-  <si>
-    <t>13,50,-35,0,60</t>
-  </si>
-  <si>
-    <t>1002,1004</t>
-  </si>
-  <si>
     <t>矿洞一层</t>
   </si>
   <si>
@@ -722,6 +713,18 @@
   </si>
   <si>
     <t>洛兰营地</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1438,19,-3223</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>101</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,50,0,0,45</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1372,8 +1375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:Q52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1535,7 +1538,7 @@
         <v>10001</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>33</v>
@@ -1556,19 +1559,19 @@
         <v>10001</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>36</v>
+        <v>207</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>37</v>
+        <v>209</v>
       </c>
       <c r="M6" s="17" t="s">
-        <v>38</v>
+        <v>208</v>
       </c>
       <c r="N6" s="18" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="O6" s="22" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="P6" s="6">
         <v>10001</v>
@@ -1582,10 +1585,10 @@
         <v>10002</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>34</v>
@@ -1603,19 +1606,19 @@
         <v>10001</v>
       </c>
       <c r="K7" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="N7" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="L7" s="10" t="s">
+      <c r="O7" s="19" t="s">
         <v>42</v>
-      </c>
-      <c r="M7" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="N7" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="O7" s="19" t="s">
-        <v>45</v>
       </c>
       <c r="P7" s="6">
         <v>10001</v>
@@ -1629,10 +1632,10 @@
         <v>10003</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>34</v>
@@ -1650,19 +1653,19 @@
         <v>10001</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="M8" s="10">
         <v>1010</v>
       </c>
       <c r="N8" s="18" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="O8" s="19" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="P8" s="6">
         <v>10001</v>
@@ -1676,7 +1679,7 @@
         <v>10004</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>33</v>
@@ -1697,19 +1700,19 @@
         <v>10001</v>
       </c>
       <c r="K9" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="M9" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="N9" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="L9" s="10" t="s">
+      <c r="O9" s="19" t="s">
         <v>53</v>
-      </c>
-      <c r="M9" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="N9" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="O9" s="19" t="s">
-        <v>56</v>
       </c>
       <c r="P9" s="6">
         <v>10001</v>
@@ -1723,10 +1726,10 @@
         <v>10005</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>34</v>
@@ -1744,19 +1747,19 @@
         <v>10001</v>
       </c>
       <c r="K10" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M10" s="10">
         <v>1011</v>
       </c>
       <c r="N10" s="18" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="O10" s="19" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="P10" s="6">
         <v>10001</v>
@@ -1770,10 +1773,10 @@
         <v>10006</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F11" s="9" t="s">
         <v>34</v>
@@ -1791,19 +1794,19 @@
         <v>10001</v>
       </c>
       <c r="K11" s="15" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M11" s="10">
         <v>1012</v>
       </c>
       <c r="N11" s="18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O11" s="19" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="P11" s="6">
         <v>10001</v>
@@ -1817,10 +1820,10 @@
         <v>10007</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F12" s="9" t="s">
         <v>34</v>
@@ -1838,19 +1841,19 @@
         <v>10001</v>
       </c>
       <c r="K12" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="M12" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="N12" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="L12" s="10" t="s">
+      <c r="O12" s="19" t="s">
         <v>71</v>
-      </c>
-      <c r="M12" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="N12" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="O12" s="19" t="s">
-        <v>74</v>
       </c>
       <c r="P12" s="6">
         <v>10001</v>
@@ -1864,10 +1867,10 @@
         <v>10008</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>34</v>
@@ -1885,19 +1888,19 @@
         <v>10001</v>
       </c>
       <c r="K13" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="M13" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N13" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="L13" s="10" t="s">
+      <c r="O13" s="19" t="s">
         <v>77</v>
-      </c>
-      <c r="M13" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="N13" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="O13" s="19" t="s">
-        <v>80</v>
       </c>
       <c r="P13" s="6">
         <v>10001</v>
@@ -1911,10 +1914,10 @@
         <v>20001</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F14" s="9" t="s">
         <v>34</v>
@@ -1932,19 +1935,19 @@
         <v>10001</v>
       </c>
       <c r="K14" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="M14" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="N14" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="L14" s="10" t="s">
+      <c r="O14" s="19" t="s">
         <v>84</v>
-      </c>
-      <c r="M14" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="N14" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="O14" s="19" t="s">
-        <v>87</v>
       </c>
       <c r="P14" s="6">
         <v>10001</v>
@@ -1958,10 +1961,10 @@
         <v>20002</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F15" s="9" t="s">
         <v>34</v>
@@ -1979,19 +1982,19 @@
         <v>10001</v>
       </c>
       <c r="K15" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="M15" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="N15" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="L15" s="10" t="s">
+      <c r="O15" s="19" t="s">
         <v>90</v>
-      </c>
-      <c r="M15" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="N15" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="O15" s="19" t="s">
-        <v>93</v>
       </c>
       <c r="P15" s="6">
         <v>10001</v>
@@ -2005,10 +2008,10 @@
         <v>20003</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F16" s="9" t="s">
         <v>34</v>
@@ -2026,19 +2029,19 @@
         <v>10001</v>
       </c>
       <c r="K16" s="15" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="M16" s="10">
         <v>2012</v>
       </c>
       <c r="N16" s="18" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O16" s="19" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="P16" s="6">
         <v>10001</v>
@@ -2052,10 +2055,10 @@
         <v>20004</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F17" s="9" t="s">
         <v>34</v>
@@ -2073,19 +2076,19 @@
         <v>10001</v>
       </c>
       <c r="K17" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="L17" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="M17" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="N17" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="L17" s="10" t="s">
+      <c r="O17" s="19" t="s">
         <v>101</v>
-      </c>
-      <c r="M17" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="N17" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="O17" s="19" t="s">
-        <v>104</v>
       </c>
       <c r="P17" s="6">
         <v>10001</v>
@@ -2099,10 +2102,10 @@
         <v>20005</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F18" s="9" t="s">
         <v>34</v>
@@ -2120,10 +2123,10 @@
         <v>10001</v>
       </c>
       <c r="K18" s="15" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="M18" s="10">
         <v>2014</v>
@@ -2142,10 +2145,10 @@
         <v>30001</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F19" s="9" t="s">
         <v>34</v>
@@ -2163,17 +2166,17 @@
         <v>10001</v>
       </c>
       <c r="K19" s="15" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="L19" s="10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M19" s="10">
         <v>3002</v>
       </c>
       <c r="N19" s="13"/>
       <c r="O19" s="19" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="P19" s="6">
         <v>10001</v>
@@ -2187,10 +2190,10 @@
         <v>30002</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F20" s="9" t="s">
         <v>34</v>
@@ -2208,13 +2211,13 @@
         <v>10001</v>
       </c>
       <c r="K20" s="15" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M20" s="17" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="N20" s="13"/>
       <c r="O20" s="14"/>
@@ -2230,10 +2233,10 @@
         <v>30003</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F21" s="9" t="s">
         <v>34</v>
@@ -2251,17 +2254,17 @@
         <v>10001</v>
       </c>
       <c r="K21" s="15" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="L21" s="10" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="M21" s="10">
         <v>3012</v>
       </c>
       <c r="N21" s="13"/>
       <c r="O21" s="19" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="P21" s="6">
         <v>10001</v>
@@ -2275,10 +2278,10 @@
         <v>30004</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F22" s="9" t="s">
         <v>34</v>
@@ -2296,17 +2299,17 @@
         <v>10001</v>
       </c>
       <c r="K22" s="15" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="L22" s="10" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="M22" s="17" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="N22" s="13"/>
       <c r="O22" s="19" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="P22" s="6">
         <v>10001</v>
@@ -2320,10 +2323,10 @@
         <v>30005</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F23" s="9" t="s">
         <v>34</v>
@@ -2341,17 +2344,17 @@
         <v>10001</v>
       </c>
       <c r="K23" s="15" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="L23" s="10" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="M23" s="17" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="N23" s="13"/>
       <c r="O23" s="19" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="P23" s="6">
         <v>10001</v>
@@ -2365,7 +2368,7 @@
         <v>30006</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>33</v>
@@ -2386,17 +2389,17 @@
         <v>10001</v>
       </c>
       <c r="K24" s="15" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="M24" s="10">
         <v>3015</v>
       </c>
       <c r="N24" s="13"/>
       <c r="O24" s="19" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="P24" s="6">
         <v>10001</v>
@@ -2410,10 +2413,10 @@
         <v>40001</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F25" s="9" t="s">
         <v>34</v>
@@ -2431,17 +2434,17 @@
         <v>10001</v>
       </c>
       <c r="K25" s="15" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="L25" s="10" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="M25" s="17" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="N25" s="13"/>
       <c r="O25" s="19" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="P25" s="6">
         <v>10001</v>
@@ -2455,10 +2458,10 @@
         <v>40002</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F26" s="9" t="s">
         <v>34</v>
@@ -2476,13 +2479,13 @@
         <v>10001</v>
       </c>
       <c r="K26" s="15" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="M26" s="20" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N26" s="16"/>
       <c r="O26" s="14"/>
@@ -2498,10 +2501,10 @@
         <v>40003</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F27" s="9" t="s">
         <v>34</v>
@@ -2519,17 +2522,17 @@
         <v>10001</v>
       </c>
       <c r="K27" s="15" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="L27" s="10" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="M27" s="20" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="N27" s="16"/>
       <c r="O27" s="19" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="P27" s="6">
         <v>10001</v>
@@ -2543,10 +2546,10 @@
         <v>40004</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F28" s="9" t="s">
         <v>34</v>
@@ -2564,17 +2567,17 @@
         <v>10001</v>
       </c>
       <c r="K28" s="15" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="L28" s="10" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="M28" s="20" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="N28" s="16"/>
       <c r="O28" s="19" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="P28" s="6">
         <v>10001</v>
@@ -2588,10 +2591,10 @@
         <v>40005</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F29" s="9" t="s">
         <v>34</v>
@@ -2609,10 +2612,10 @@
         <v>10001</v>
       </c>
       <c r="K29" s="15" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L29" s="10" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="M29" s="10">
         <v>4014</v>
@@ -2631,10 +2634,10 @@
         <v>40006</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F30" s="9" t="s">
         <v>34</v>
@@ -2652,17 +2655,17 @@
         <v>10001</v>
       </c>
       <c r="K30" s="15" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M30" s="17" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="N30" s="13"/>
       <c r="O30" s="19" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="P30" s="6">
         <v>10001</v>
@@ -2676,10 +2679,10 @@
         <v>40007</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F31" s="9" t="s">
         <v>34</v>
@@ -2697,17 +2700,17 @@
         <v>10001</v>
       </c>
       <c r="K31" s="15" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="L31" s="10" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="M31" s="10">
         <v>4015</v>
       </c>
       <c r="N31" s="13"/>
       <c r="O31" s="19" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="P31" s="6">
         <v>10001</v>
@@ -2721,10 +2724,10 @@
         <v>50001</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F32" s="9" t="s">
         <v>34</v>
@@ -2742,17 +2745,17 @@
         <v>10001</v>
       </c>
       <c r="K32" s="15" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="L32" s="10" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="M32" s="10">
         <v>5002</v>
       </c>
       <c r="N32" s="13"/>
       <c r="O32" s="19" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="P32" s="6">
         <v>10001</v>
@@ -2766,10 +2769,10 @@
         <v>50002</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F33" s="9" t="s">
         <v>34</v>
@@ -2787,17 +2790,17 @@
         <v>10001</v>
       </c>
       <c r="K33" s="15" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="L33" s="10" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="M33" s="17" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="N33" s="13"/>
       <c r="O33" s="19" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="P33" s="6">
         <v>10001</v>
@@ -2811,10 +2814,10 @@
         <v>50003</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F34" s="9" t="s">
         <v>34</v>
@@ -2832,13 +2835,13 @@
         <v>10001</v>
       </c>
       <c r="K34" s="15" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="L34" s="10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M34" s="17" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="N34" s="13"/>
       <c r="O34" s="14"/>
@@ -2854,10 +2857,10 @@
         <v>50004</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F35" s="9" t="s">
         <v>34</v>
@@ -2875,17 +2878,17 @@
         <v>10001</v>
       </c>
       <c r="K35" s="15" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="L35" s="10" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="M35" s="17" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="N35" s="13"/>
       <c r="O35" s="19" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="P35" s="6">
         <v>10001</v>
@@ -2899,10 +2902,10 @@
         <v>50005</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F36" s="9" t="s">
         <v>34</v>
@@ -2920,13 +2923,13 @@
         <v>10001</v>
       </c>
       <c r="K36" s="15" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L36" s="17" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="M36" s="17" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="N36" s="13"/>
       <c r="O36" s="14"/>
@@ -2942,10 +2945,10 @@
         <v>50006</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F37" s="9" t="s">
         <v>34</v>
@@ -2963,13 +2966,13 @@
         <v>10001</v>
       </c>
       <c r="K37" s="15" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L37" s="10" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M37" s="17" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="N37" s="13"/>
       <c r="O37" s="14"/>
@@ -2985,10 +2988,10 @@
         <v>50007</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F38" s="9" t="s">
         <v>34</v>
@@ -3006,10 +3009,10 @@
         <v>10001</v>
       </c>
       <c r="K38" s="15" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M38" s="10">
         <v>5016</v>
@@ -3028,10 +3031,10 @@
         <v>60001</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F39" s="9" t="s">
         <v>34</v>
@@ -3049,10 +3052,10 @@
         <v>10001</v>
       </c>
       <c r="K39" s="15" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="L39" s="10" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="M39" s="10"/>
       <c r="N39" s="13"/>
@@ -3069,10 +3072,10 @@
         <v>60002</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F40" s="9" t="s">
         <v>34</v>
@@ -3090,10 +3093,10 @@
         <v>10001</v>
       </c>
       <c r="K40" s="15" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="M40" s="10"/>
       <c r="N40" s="13"/>
@@ -3110,13 +3113,13 @@
         <v>100001</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G41" s="10">
         <v>1</v>
@@ -3131,10 +3134,10 @@
         <v>10001</v>
       </c>
       <c r="K41" s="21" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="L41" s="10" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="M41" s="10"/>
       <c r="N41" s="13"/>
@@ -3149,10 +3152,10 @@
         <v>100101</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F42" s="8" t="s">
         <v>34</v>
@@ -3170,10 +3173,10 @@
         <v>10001</v>
       </c>
       <c r="K42" s="15" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="L42" s="10" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="M42" s="10"/>
       <c r="N42" s="13"/>
@@ -3188,10 +3191,10 @@
         <v>100201</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F43" s="8" t="s">
         <v>34</v>
@@ -3209,10 +3212,10 @@
         <v>10001</v>
       </c>
       <c r="K43" s="15" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="L43" s="10" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="M43" s="10"/>
       <c r="N43" s="13"/>
@@ -3227,10 +3230,10 @@
         <v>100301</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F44" s="8" t="s">
         <v>34</v>
@@ -3248,10 +3251,10 @@
         <v>10001</v>
       </c>
       <c r="K44" s="15" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="L44" s="10" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="M44" s="10"/>
       <c r="N44" s="13"/>
@@ -3266,10 +3269,10 @@
         <v>100401</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F45" s="8" t="s">
         <v>34</v>
@@ -3287,10 +3290,10 @@
         <v>10001</v>
       </c>
       <c r="K45" s="15" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="L45" s="10" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="M45" s="10"/>
       <c r="N45" s="13"/>
@@ -3305,10 +3308,10 @@
         <v>100501</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F46" s="8" t="s">
         <v>34</v>
@@ -3326,10 +3329,10 @@
         <v>10001</v>
       </c>
       <c r="K46" s="15" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="L46" s="10" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="M46" s="10"/>
       <c r="N46" s="13"/>
@@ -3344,10 +3347,10 @@
         <v>100601</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F47" s="8" t="s">
         <v>34</v>
@@ -3365,10 +3368,10 @@
         <v>10001</v>
       </c>
       <c r="K47" s="15" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="L47" s="10" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="M47" s="10"/>
       <c r="N47" s="13"/>

--- a/Unity/Assets/Config/Excel/DungeonConfig.xlsx
+++ b/Unity/Assets/Config/Excel/DungeonConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E876B94-3D5B-4D06-800A-E83C85FDA9A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFFBDD0F-0C9B-407C-8A8C-BD6450FB2AEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="186">
   <si>
     <t>Id</t>
   </si>
@@ -204,28 +204,16 @@
     <t>dixiacheng_1</t>
   </si>
   <si>
-    <t>148,120,-8,0,80</t>
-  </si>
-  <si>
     <t>10001,1002;10003,1010;10004,1001;10005,1011</t>
   </si>
   <si>
-    <t>158,95,-25,0,70</t>
-  </si>
-  <si>
     <t>10001,1002;10002,1003;10004,1001;10005,1011</t>
   </si>
   <si>
-    <t>208,105,-45,0,45</t>
-  </si>
-  <si>
     <t>10001,1004;10002,1009;10003,1010;10005,1011</t>
   </si>
   <si>
     <t>jiaowai_2</t>
-  </si>
-  <si>
-    <t>201,101,-45,0,50</t>
   </si>
   <si>
     <t>10001,1004;10002,1009;10003,1010;10004,1005</t>
@@ -672,6 +660,10 @@
   </si>
   <si>
     <t>10004,10013</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>25,120,0,0,40</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1372,8 +1364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:Q49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1381,7 +1373,7 @@
     <col min="3" max="3" width="7.5" customWidth="1"/>
     <col min="4" max="6" width="16.75" customWidth="1"/>
     <col min="7" max="8" width="17.25" customWidth="1"/>
-    <col min="9" max="9" width="20.625" customWidth="1"/>
+    <col min="9" max="9" width="37.25" customWidth="1"/>
     <col min="10" max="11" width="17.25" customWidth="1"/>
     <col min="12" max="13" width="26.625" customWidth="1"/>
     <col min="14" max="14" width="73.375" customWidth="1"/>
@@ -1535,7 +1527,7 @@
         <v>10001</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>33</v>
@@ -1556,19 +1548,19 @@
         <v>10001</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M6" s="12">
         <v>10001</v>
       </c>
       <c r="N6" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O6" s="15" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="P6" s="6">
         <v>10001</v>
@@ -1582,7 +1574,7 @@
         <v>10002</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>36</v>
@@ -1603,16 +1595,16 @@
         <v>10002</v>
       </c>
       <c r="K7" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="M7" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="L7" s="10" t="s">
+      <c r="N7" s="13" t="s">
         <v>37</v>
-      </c>
-      <c r="M7" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="N7" s="13" t="s">
-        <v>38</v>
       </c>
       <c r="O7" s="14"/>
       <c r="P7" s="6">
@@ -1627,7 +1619,7 @@
         <v>10003</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>36</v>
@@ -1648,16 +1640,16 @@
         <v>10003</v>
       </c>
       <c r="K8" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="M8" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="L8" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="M8" s="12" t="s">
-        <v>187</v>
-      </c>
       <c r="N8" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O8" s="14"/>
       <c r="P8" s="6">
@@ -1672,7 +1664,7 @@
         <v>10004</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>33</v>
@@ -1693,16 +1685,16 @@
         <v>10004</v>
       </c>
       <c r="K9" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="M9" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="L9" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="M9" s="12" t="s">
-        <v>188</v>
-      </c>
       <c r="N9" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="O9" s="14"/>
       <c r="P9" s="6">
@@ -1717,10 +1709,10 @@
         <v>10005</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>34</v>
@@ -1738,16 +1730,16 @@
         <v>10005</v>
       </c>
       <c r="K10" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="L10" s="10" t="s">
         <v>185</v>
-      </c>
-      <c r="L10" s="10" t="s">
-        <v>44</v>
       </c>
       <c r="M10" s="10">
         <v>10014</v>
       </c>
       <c r="N10" s="13" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O10" s="14"/>
       <c r="P10" s="6">
@@ -1762,10 +1754,10 @@
         <v>20001</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F11" s="19" t="s">
         <v>34</v>
@@ -1783,19 +1775,19 @@
         <v>10001</v>
       </c>
       <c r="K11" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="L11" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="M11" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="N11" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="O11" s="24" t="s">
         <v>49</v>
-      </c>
-      <c r="L11" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="M11" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="N11" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="O11" s="24" t="s">
-        <v>53</v>
       </c>
       <c r="P11" s="16">
         <v>10001</v>
@@ -1809,10 +1801,10 @@
         <v>20002</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F12" s="19" t="s">
         <v>34</v>
@@ -1830,19 +1822,19 @@
         <v>10001</v>
       </c>
       <c r="K12" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="L12" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="M12" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="N12" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="O12" s="24" t="s">
         <v>55</v>
-      </c>
-      <c r="L12" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="M12" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="N12" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="O12" s="24" t="s">
-        <v>59</v>
       </c>
       <c r="P12" s="16">
         <v>10001</v>
@@ -1856,10 +1848,10 @@
         <v>20003</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F13" s="19" t="s">
         <v>34</v>
@@ -1877,19 +1869,19 @@
         <v>10001</v>
       </c>
       <c r="K13" s="21" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="L13" s="20" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="M13" s="20">
         <v>2012</v>
       </c>
       <c r="N13" s="23" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="O13" s="24" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="P13" s="16">
         <v>10001</v>
@@ -1903,10 +1895,10 @@
         <v>20004</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F14" s="19" t="s">
         <v>34</v>
@@ -1924,19 +1916,19 @@
         <v>10001</v>
       </c>
       <c r="K14" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="L14" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="M14" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="N14" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="O14" s="24" t="s">
         <v>66</v>
-      </c>
-      <c r="L14" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="M14" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="N14" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="O14" s="24" t="s">
-        <v>70</v>
       </c>
       <c r="P14" s="16">
         <v>10001</v>
@@ -1950,10 +1942,10 @@
         <v>20005</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F15" s="19" t="s">
         <v>34</v>
@@ -1971,10 +1963,10 @@
         <v>10001</v>
       </c>
       <c r="K15" s="21" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="L15" s="20" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="M15" s="20">
         <v>2014</v>
@@ -1993,10 +1985,10 @@
         <v>30001</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F16" s="19" t="s">
         <v>34</v>
@@ -2014,17 +2006,17 @@
         <v>10001</v>
       </c>
       <c r="K16" s="21" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="L16" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="M16" s="20">
         <v>3002</v>
       </c>
       <c r="N16" s="26"/>
       <c r="O16" s="24" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="P16" s="16">
         <v>10001</v>
@@ -2038,10 +2030,10 @@
         <v>30002</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F17" s="19" t="s">
         <v>34</v>
@@ -2059,13 +2051,13 @@
         <v>10001</v>
       </c>
       <c r="K17" s="21" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="L17" s="20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="M17" s="22" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="N17" s="26"/>
       <c r="O17" s="27"/>
@@ -2081,10 +2073,10 @@
         <v>30003</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F18" s="19" t="s">
         <v>34</v>
@@ -2102,17 +2094,17 @@
         <v>10001</v>
       </c>
       <c r="K18" s="21" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="L18" s="20" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="M18" s="20">
         <v>3012</v>
       </c>
       <c r="N18" s="26"/>
       <c r="O18" s="24" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="P18" s="16">
         <v>10001</v>
@@ -2126,10 +2118,10 @@
         <v>30004</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F19" s="19" t="s">
         <v>34</v>
@@ -2147,17 +2139,17 @@
         <v>10001</v>
       </c>
       <c r="K19" s="21" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="L19" s="20" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="M19" s="22" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="N19" s="26"/>
       <c r="O19" s="24" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="P19" s="16">
         <v>10001</v>
@@ -2171,10 +2163,10 @@
         <v>30005</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F20" s="19" t="s">
         <v>34</v>
@@ -2192,17 +2184,17 @@
         <v>10001</v>
       </c>
       <c r="K20" s="21" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="L20" s="20" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="M20" s="22" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N20" s="26"/>
       <c r="O20" s="24" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="P20" s="16">
         <v>10001</v>
@@ -2216,7 +2208,7 @@
         <v>30006</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E21" s="18" t="s">
         <v>33</v>
@@ -2237,17 +2229,17 @@
         <v>10001</v>
       </c>
       <c r="K21" s="21" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L21" s="20" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="M21" s="20">
         <v>3015</v>
       </c>
       <c r="N21" s="26"/>
       <c r="O21" s="24" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="P21" s="16">
         <v>10001</v>
@@ -2261,10 +2253,10 @@
         <v>40001</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F22" s="19" t="s">
         <v>34</v>
@@ -2282,17 +2274,17 @@
         <v>10001</v>
       </c>
       <c r="K22" s="21" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L22" s="20" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M22" s="22" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="N22" s="26"/>
       <c r="O22" s="24" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="P22" s="16">
         <v>10001</v>
@@ -2306,10 +2298,10 @@
         <v>40002</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F23" s="19" t="s">
         <v>34</v>
@@ -2327,13 +2319,13 @@
         <v>10001</v>
       </c>
       <c r="K23" s="21" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="L23" s="20" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="M23" s="30" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="N23" s="31"/>
       <c r="O23" s="27"/>
@@ -2349,10 +2341,10 @@
         <v>40003</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F24" s="19" t="s">
         <v>34</v>
@@ -2370,17 +2362,17 @@
         <v>10001</v>
       </c>
       <c r="K24" s="21" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="L24" s="20" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="M24" s="30" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="N24" s="31"/>
       <c r="O24" s="24" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="P24" s="16">
         <v>10001</v>
@@ -2394,10 +2386,10 @@
         <v>40004</v>
       </c>
       <c r="D25" s="29" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F25" s="19" t="s">
         <v>34</v>
@@ -2415,17 +2407,17 @@
         <v>10001</v>
       </c>
       <c r="K25" s="21" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="L25" s="20" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M25" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="N25" s="31"/>
       <c r="O25" s="24" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="P25" s="16">
         <v>10001</v>
@@ -2439,10 +2431,10 @@
         <v>40005</v>
       </c>
       <c r="D26" s="29" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F26" s="19" t="s">
         <v>34</v>
@@ -2460,10 +2452,10 @@
         <v>10001</v>
       </c>
       <c r="K26" s="21" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="L26" s="20" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="M26" s="20">
         <v>4014</v>
@@ -2482,10 +2474,10 @@
         <v>40006</v>
       </c>
       <c r="D27" s="29" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F27" s="19" t="s">
         <v>34</v>
@@ -2503,17 +2495,17 @@
         <v>10001</v>
       </c>
       <c r="K27" s="21" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="L27" s="20" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="M27" s="22" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="N27" s="26"/>
       <c r="O27" s="24" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="P27" s="16">
         <v>10001</v>
@@ -2527,10 +2519,10 @@
         <v>40007</v>
       </c>
       <c r="D28" s="29" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F28" s="19" t="s">
         <v>34</v>
@@ -2548,17 +2540,17 @@
         <v>10001</v>
       </c>
       <c r="K28" s="21" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="L28" s="20" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="M28" s="20">
         <v>4015</v>
       </c>
       <c r="N28" s="26"/>
       <c r="O28" s="24" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="P28" s="16">
         <v>10001</v>
@@ -2572,10 +2564,10 @@
         <v>50001</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F29" s="19" t="s">
         <v>34</v>
@@ -2593,17 +2585,17 @@
         <v>10001</v>
       </c>
       <c r="K29" s="21" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="L29" s="20" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="M29" s="20">
         <v>5002</v>
       </c>
       <c r="N29" s="26"/>
       <c r="O29" s="24" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="P29" s="16">
         <v>10001</v>
@@ -2617,7 +2609,7 @@
         <v>50002</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E30" s="18" t="s">
         <v>36</v>
@@ -2638,17 +2630,17 @@
         <v>10001</v>
       </c>
       <c r="K30" s="21" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="L30" s="20" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="M30" s="22" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="N30" s="26"/>
       <c r="O30" s="24" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="P30" s="16">
         <v>10001</v>
@@ -2662,7 +2654,7 @@
         <v>50003</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E31" s="18" t="s">
         <v>36</v>
@@ -2683,13 +2675,13 @@
         <v>10001</v>
       </c>
       <c r="K31" s="21" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="L31" s="20" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="M31" s="22" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="N31" s="26"/>
       <c r="O31" s="27"/>
@@ -2705,10 +2697,10 @@
         <v>50004</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F32" s="19" t="s">
         <v>34</v>
@@ -2726,17 +2718,17 @@
         <v>10001</v>
       </c>
       <c r="K32" s="21" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="L32" s="20" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="M32" s="22" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="N32" s="26"/>
       <c r="O32" s="24" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="P32" s="16">
         <v>10001</v>
@@ -2750,10 +2742,10 @@
         <v>50005</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F33" s="19" t="s">
         <v>34</v>
@@ -2771,13 +2763,13 @@
         <v>10001</v>
       </c>
       <c r="K33" s="21" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L33" s="22" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="M33" s="22" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="N33" s="26"/>
       <c r="O33" s="27"/>
@@ -2793,10 +2785,10 @@
         <v>50006</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F34" s="19" t="s">
         <v>34</v>
@@ -2814,13 +2806,13 @@
         <v>10001</v>
       </c>
       <c r="K34" s="21" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="L34" s="20" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="M34" s="22" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="N34" s="26"/>
       <c r="O34" s="27"/>
@@ -2836,10 +2828,10 @@
         <v>50007</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F35" s="19" t="s">
         <v>34</v>
@@ -2857,10 +2849,10 @@
         <v>10001</v>
       </c>
       <c r="K35" s="21" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="L35" s="20" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="M35" s="20">
         <v>5016</v>
@@ -2879,10 +2871,10 @@
         <v>60001</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F36" s="19" t="s">
         <v>34</v>
@@ -2900,10 +2892,10 @@
         <v>10001</v>
       </c>
       <c r="K36" s="21" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="L36" s="20" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="M36" s="20"/>
       <c r="N36" s="26"/>
@@ -2920,10 +2912,10 @@
         <v>60002</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F37" s="19" t="s">
         <v>34</v>
@@ -2941,10 +2933,10 @@
         <v>10001</v>
       </c>
       <c r="K37" s="21" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="L37" s="20" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="M37" s="20"/>
       <c r="N37" s="26"/>
@@ -2961,13 +2953,13 @@
         <v>100001</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E38" s="18" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F38" s="18" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G38" s="20">
         <v>1</v>
@@ -2982,10 +2974,10 @@
         <v>10001</v>
       </c>
       <c r="K38" s="33" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="L38" s="20" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="M38" s="20"/>
       <c r="N38" s="26"/>
@@ -3000,10 +2992,10 @@
         <v>100101</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E39" s="18" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F39" s="18" t="s">
         <v>34</v>
@@ -3021,10 +3013,10 @@
         <v>10001</v>
       </c>
       <c r="K39" s="21" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="L39" s="20" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="M39" s="20"/>
       <c r="N39" s="26"/>
@@ -3039,10 +3031,10 @@
         <v>100201</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E40" s="18" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F40" s="18" t="s">
         <v>34</v>
@@ -3060,10 +3052,10 @@
         <v>10001</v>
       </c>
       <c r="K40" s="21" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="L40" s="20" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="M40" s="20"/>
       <c r="N40" s="26"/>
@@ -3078,10 +3070,10 @@
         <v>100301</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E41" s="18" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F41" s="18" t="s">
         <v>34</v>
@@ -3099,10 +3091,10 @@
         <v>10001</v>
       </c>
       <c r="K41" s="21" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="L41" s="20" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="M41" s="20"/>
       <c r="N41" s="26"/>
@@ -3117,10 +3109,10 @@
         <v>100401</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E42" s="18" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F42" s="18" t="s">
         <v>34</v>
@@ -3138,10 +3130,10 @@
         <v>10001</v>
       </c>
       <c r="K42" s="21" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="L42" s="20" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="M42" s="20"/>
       <c r="N42" s="26"/>
@@ -3156,10 +3148,10 @@
         <v>100501</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E43" s="18" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F43" s="18" t="s">
         <v>34</v>
@@ -3177,10 +3169,10 @@
         <v>10001</v>
       </c>
       <c r="K43" s="21" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="L43" s="20" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="M43" s="20"/>
       <c r="N43" s="26"/>
@@ -3195,10 +3187,10 @@
         <v>100601</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E44" s="18" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F44" s="18" t="s">
         <v>34</v>
@@ -3216,10 +3208,10 @@
         <v>10001</v>
       </c>
       <c r="K44" s="21" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="L44" s="20" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="M44" s="20"/>
       <c r="N44" s="26"/>

--- a/Unity/Assets/Config/Excel/DungeonConfig.xlsx
+++ b/Unity/Assets/Config/Excel/DungeonConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFFBDD0F-0C9B-407C-8A8C-BD6450FB2AEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{313D5372-6E27-4D8F-9F90-545BE260A042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1364,8 +1364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:Q49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1608,7 +1608,7 @@
       </c>
       <c r="O7" s="14"/>
       <c r="P7" s="6">
-        <v>10001</v>
+        <v>12001</v>
       </c>
       <c r="Q7" s="6">
         <v>1</v>
@@ -1653,7 +1653,7 @@
       </c>
       <c r="O8" s="14"/>
       <c r="P8" s="6">
-        <v>10001</v>
+        <v>13001</v>
       </c>
       <c r="Q8" s="6">
         <v>1</v>
@@ -1698,7 +1698,7 @@
       </c>
       <c r="O9" s="14"/>
       <c r="P9" s="6">
-        <v>10001</v>
+        <v>14001</v>
       </c>
       <c r="Q9" s="6">
         <v>1</v>
@@ -1743,7 +1743,7 @@
       </c>
       <c r="O10" s="14"/>
       <c r="P10" s="6">
-        <v>10001</v>
+        <v>15001</v>
       </c>
       <c r="Q10" s="6">
         <v>1</v>

--- a/Unity/Assets/Config/Excel/DungeonConfig.xlsx
+++ b/Unity/Assets/Config/Excel/DungeonConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{615BB2F3-10EE-4A25-BC74-D6294B503946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E22388E-362E-47B9-8D77-EAC3217B08DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1176,8 +1176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:Q42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1598,7 +1598,7 @@
       <c r="N11" s="13"/>
       <c r="O11" s="14"/>
       <c r="P11" s="6">
-        <v>10001</v>
+        <v>21001</v>
       </c>
       <c r="Q11" s="6">
         <v>1</v>
@@ -1641,7 +1641,7 @@
       <c r="N12" s="13"/>
       <c r="O12" s="14"/>
       <c r="P12" s="6">
-        <v>12001</v>
+        <v>22001</v>
       </c>
       <c r="Q12" s="6">
         <v>1</v>
@@ -1684,7 +1684,7 @@
       <c r="N13" s="13"/>
       <c r="O13" s="14"/>
       <c r="P13" s="6">
-        <v>13001</v>
+        <v>23001</v>
       </c>
       <c r="Q13" s="6">
         <v>1</v>
@@ -1727,7 +1727,7 @@
       <c r="N14" s="13"/>
       <c r="O14" s="14"/>
       <c r="P14" s="6">
-        <v>14001</v>
+        <v>24001</v>
       </c>
       <c r="Q14" s="6">
         <v>1</v>
@@ -1770,7 +1770,7 @@
       <c r="N15" s="13"/>
       <c r="O15" s="14"/>
       <c r="P15" s="6">
-        <v>15001</v>
+        <v>25001</v>
       </c>
       <c r="Q15" s="6">
         <v>1</v>
@@ -1813,7 +1813,7 @@
       <c r="N16" s="13"/>
       <c r="O16" s="14"/>
       <c r="P16" s="6">
-        <v>10001</v>
+        <v>31001</v>
       </c>
       <c r="Q16" s="6">
         <v>1</v>
@@ -1856,7 +1856,7 @@
       <c r="N17" s="13"/>
       <c r="O17" s="14"/>
       <c r="P17" s="6">
-        <v>12001</v>
+        <v>32001</v>
       </c>
       <c r="Q17" s="6">
         <v>1</v>
@@ -1899,7 +1899,7 @@
       <c r="N18" s="13"/>
       <c r="O18" s="14"/>
       <c r="P18" s="6">
-        <v>13001</v>
+        <v>33001</v>
       </c>
       <c r="Q18" s="6">
         <v>1</v>
@@ -1942,7 +1942,7 @@
       <c r="N19" s="13"/>
       <c r="O19" s="14"/>
       <c r="P19" s="6">
-        <v>14001</v>
+        <v>34001</v>
       </c>
       <c r="Q19" s="6">
         <v>1</v>
@@ -1985,7 +1985,7 @@
       <c r="N20" s="13"/>
       <c r="O20" s="14"/>
       <c r="P20" s="6">
-        <v>15001</v>
+        <v>35001</v>
       </c>
       <c r="Q20" s="6">
         <v>1</v>
@@ -2028,7 +2028,7 @@
       <c r="N21" s="13"/>
       <c r="O21" s="14"/>
       <c r="P21" s="6">
-        <v>10001</v>
+        <v>41001</v>
       </c>
       <c r="Q21" s="6">
         <v>1</v>
@@ -2071,7 +2071,7 @@
       <c r="N22" s="13"/>
       <c r="O22" s="14"/>
       <c r="P22" s="6">
-        <v>12001</v>
+        <v>42001</v>
       </c>
       <c r="Q22" s="6">
         <v>1</v>
@@ -2114,7 +2114,7 @@
       <c r="N23" s="13"/>
       <c r="O23" s="14"/>
       <c r="P23" s="6">
-        <v>13001</v>
+        <v>43001</v>
       </c>
       <c r="Q23" s="6">
         <v>1</v>
@@ -2157,7 +2157,7 @@
       <c r="N24" s="13"/>
       <c r="O24" s="14"/>
       <c r="P24" s="6">
-        <v>14001</v>
+        <v>44001</v>
       </c>
       <c r="Q24" s="6">
         <v>1</v>
@@ -2200,7 +2200,7 @@
       <c r="N25" s="13"/>
       <c r="O25" s="14"/>
       <c r="P25" s="6">
-        <v>15001</v>
+        <v>45001</v>
       </c>
       <c r="Q25" s="6">
         <v>1</v>
@@ -2243,7 +2243,7 @@
       <c r="N26" s="13"/>
       <c r="O26" s="14"/>
       <c r="P26" s="6">
-        <v>10001</v>
+        <v>51001</v>
       </c>
       <c r="Q26" s="6">
         <v>1</v>
@@ -2286,7 +2286,7 @@
       <c r="N27" s="13"/>
       <c r="O27" s="14"/>
       <c r="P27" s="6">
-        <v>12001</v>
+        <v>52001</v>
       </c>
       <c r="Q27" s="6">
         <v>1</v>
@@ -2329,7 +2329,7 @@
       <c r="N28" s="13"/>
       <c r="O28" s="14"/>
       <c r="P28" s="6">
-        <v>13001</v>
+        <v>53001</v>
       </c>
       <c r="Q28" s="6">
         <v>1</v>
@@ -2372,7 +2372,7 @@
       <c r="N29" s="13"/>
       <c r="O29" s="14"/>
       <c r="P29" s="6">
-        <v>14001</v>
+        <v>54001</v>
       </c>
       <c r="Q29" s="6">
         <v>1</v>
@@ -2415,7 +2415,7 @@
       <c r="N30" s="13"/>
       <c r="O30" s="14"/>
       <c r="P30" s="6">
-        <v>15001</v>
+        <v>55001</v>
       </c>
       <c r="Q30" s="6">
         <v>1</v>

--- a/Unity/Assets/Config/Excel/DungeonConfig.xlsx
+++ b/Unity/Assets/Config/Excel/DungeonConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E22388E-362E-47B9-8D77-EAC3217B08DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2AE0DD6-B0FA-4054-86B9-EEC349C58BB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="138">
   <si>
     <t>Id</t>
   </si>
@@ -417,10 +417,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>-2130,50,-1755</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>1290,50,-17390</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -499,6 +495,94 @@
   </si>
   <si>
     <t>50004,50013</t>
+  </si>
+  <si>
+    <t>1.4,120,-49.6,0,66</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2.2,120,-84,0,70</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>-36,120,-109.7,0,70</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>-38,120,-115.6,0,85</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>-35,120,-118,0,75</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,120,0,0,55</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.3,120,0,0,50</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>-5,120,5,0,55</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,120,0,0,50</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,120,0,0,60</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>13,120,-10,0,65</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>25,120,202,0,75</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>35.9,120,-3.3,0,65</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2,120,12.5,0,55</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.11,120,11.6,0,55</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.21,120,0,0,50</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>13,120,0,0,50</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,120,0,0,65</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>16.1,120,17.23,0,30</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>22.6,120,0,0,55</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>25,120,-2,0,35</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2130,50,-17555</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1176,8 +1260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:Q42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1545,7 +1629,7 @@
         <v>59</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>63</v>
+        <v>136</v>
       </c>
       <c r="M10" s="10">
         <v>10014</v>
@@ -1590,7 +1674,7 @@
         <v>85</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="M11" s="12">
         <v>20001</v>
@@ -1633,10 +1717,10 @@
         <v>86</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>63</v>
+        <v>125</v>
       </c>
       <c r="M12" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N12" s="13"/>
       <c r="O12" s="14"/>
@@ -1676,10 +1760,10 @@
         <v>87</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>63</v>
+        <v>126</v>
       </c>
       <c r="M13" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N13" s="13"/>
       <c r="O13" s="14"/>
@@ -1719,10 +1803,10 @@
         <v>88</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>63</v>
+        <v>127</v>
       </c>
       <c r="M14" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N14" s="13"/>
       <c r="O14" s="14"/>
@@ -1762,7 +1846,7 @@
         <v>89</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>63</v>
+        <v>128</v>
       </c>
       <c r="M15" s="10">
         <v>20014</v>
@@ -1804,8 +1888,8 @@
       <c r="K16" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="L16" s="10" t="s">
-        <v>63</v>
+      <c r="L16" s="12" t="s">
+        <v>116</v>
       </c>
       <c r="M16" s="12">
         <v>30001</v>
@@ -1847,11 +1931,11 @@
       <c r="K17" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="L17" s="10" t="s">
-        <v>63</v>
+      <c r="L17" s="12" t="s">
+        <v>117</v>
       </c>
       <c r="M17" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N17" s="13"/>
       <c r="O17" s="14"/>
@@ -1890,11 +1974,11 @@
       <c r="K18" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="L18" s="10" t="s">
-        <v>63</v>
+      <c r="L18" s="12" t="s">
+        <v>118</v>
       </c>
       <c r="M18" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N18" s="13"/>
       <c r="O18" s="14"/>
@@ -1931,13 +2015,13 @@
         <v>30004</v>
       </c>
       <c r="K19" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="L19" s="10" t="s">
-        <v>63</v>
+        <v>137</v>
+      </c>
+      <c r="L19" s="12" t="s">
+        <v>119</v>
       </c>
       <c r="M19" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N19" s="13"/>
       <c r="O19" s="14"/>
@@ -1974,10 +2058,10 @@
         <v>30005</v>
       </c>
       <c r="K20" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="L20" s="10" t="s">
-        <v>63</v>
+        <v>93</v>
+      </c>
+      <c r="L20" s="12" t="s">
+        <v>120</v>
       </c>
       <c r="M20" s="10">
         <v>30014</v>
@@ -2017,10 +2101,10 @@
         <v>40001</v>
       </c>
       <c r="K21" s="26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L21" s="10" t="s">
-        <v>63</v>
+        <v>121</v>
       </c>
       <c r="M21" s="12">
         <v>40001</v>
@@ -2060,13 +2144,13 @@
         <v>40002</v>
       </c>
       <c r="K22" s="26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L22" s="10" t="s">
-        <v>63</v>
+        <v>122</v>
       </c>
       <c r="M22" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N22" s="13"/>
       <c r="O22" s="14"/>
@@ -2103,13 +2187,13 @@
         <v>40003</v>
       </c>
       <c r="K23" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="L23" s="10" t="s">
-        <v>63</v>
+        <v>96</v>
+      </c>
+      <c r="L23" s="12" t="s">
+        <v>123</v>
       </c>
       <c r="M23" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N23" s="13"/>
       <c r="O23" s="14"/>
@@ -2146,13 +2230,13 @@
         <v>40004</v>
       </c>
       <c r="K24" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="L24" s="10" t="s">
-        <v>63</v>
+        <v>103</v>
+      </c>
+      <c r="L24" s="12" t="s">
+        <v>129</v>
       </c>
       <c r="M24" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N24" s="13"/>
       <c r="O24" s="14"/>
@@ -2189,10 +2273,10 @@
         <v>40005</v>
       </c>
       <c r="K25" s="26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L25" s="10" t="s">
-        <v>63</v>
+        <v>130</v>
       </c>
       <c r="M25" s="10">
         <v>40014</v>
@@ -2232,10 +2316,10 @@
         <v>50001</v>
       </c>
       <c r="K26" s="26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>63</v>
+        <v>131</v>
       </c>
       <c r="M26" s="12">
         <v>50001</v>
@@ -2275,13 +2359,13 @@
         <v>50002</v>
       </c>
       <c r="K27" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L27" s="10" t="s">
-        <v>63</v>
+        <v>132</v>
       </c>
       <c r="M27" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N27" s="13"/>
       <c r="O27" s="14"/>
@@ -2318,13 +2402,13 @@
         <v>50003</v>
       </c>
       <c r="K28" s="26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L28" s="10" t="s">
-        <v>63</v>
+        <v>133</v>
       </c>
       <c r="M28" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N28" s="13"/>
       <c r="O28" s="14"/>
@@ -2361,13 +2445,13 @@
         <v>50004</v>
       </c>
       <c r="K29" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="L29" s="10" t="s">
-        <v>63</v>
+        <v>101</v>
+      </c>
+      <c r="L29" s="12" t="s">
+        <v>135</v>
       </c>
       <c r="M29" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N29" s="13"/>
       <c r="O29" s="14"/>
@@ -2404,10 +2488,10 @@
         <v>50005</v>
       </c>
       <c r="K30" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="L30" s="10" t="s">
-        <v>63</v>
+        <v>102</v>
+      </c>
+      <c r="L30" s="12" t="s">
+        <v>134</v>
       </c>
       <c r="M30" s="10">
         <v>50014</v>

--- a/Unity/Assets/Config/Excel/DungeonConfig.xlsx
+++ b/Unity/Assets/Config/Excel/DungeonConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2AE0DD6-B0FA-4054-86B9-EEC349C58BB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE962BEC-4B59-4BA4-ACD8-82BAB11F86FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DungeonProto" sheetId="1" r:id="rId1"/>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="137">
   <si>
     <t>Id</t>
   </si>
@@ -235,10 +235,6 @@
   </si>
   <si>
     <t>0,0,729</t>
-  </si>
-  <si>
-    <t>10001</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>1438,19,-3223</t>
@@ -589,7 +585,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -651,14 +647,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color theme="0" tint="-0.499984740745262"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -674,7 +662,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -708,6 +696,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14954069643238624"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14966277047029022"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -793,7 +787,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -832,37 +826,31 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="5" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="5" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="6" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -872,6 +860,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1261,7 +1252,7 @@
   <dimension ref="C3:Q42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1423,7 +1414,7 @@
         <v>10001</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>33</v>
@@ -1444,10 +1435,10 @@
         <v>10001</v>
       </c>
       <c r="K6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="L6" s="10" t="s">
         <v>49</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>50</v>
       </c>
       <c r="M6" s="12">
         <v>10001</v>
@@ -1455,8 +1446,8 @@
       <c r="N6" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="O6" s="15" t="s">
-        <v>48</v>
+      <c r="O6" s="26">
+        <v>1000101</v>
       </c>
       <c r="P6" s="6">
         <v>10001</v>
@@ -1470,7 +1461,7 @@
         <v>10002</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>36</v>
@@ -1490,19 +1481,21 @@
       <c r="J7" s="6">
         <v>10002</v>
       </c>
-      <c r="K7" s="25" t="s">
-        <v>56</v>
+      <c r="K7" s="23" t="s">
+        <v>55</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M7" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N7" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="O7" s="14"/>
+      <c r="O7" s="26">
+        <v>1000201</v>
+      </c>
       <c r="P7" s="6">
         <v>12001</v>
       </c>
@@ -1515,7 +1508,7 @@
         <v>10003</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>36</v>
@@ -1535,19 +1528,21 @@
       <c r="J8" s="6">
         <v>10003</v>
       </c>
-      <c r="K8" s="26" t="s">
-        <v>57</v>
+      <c r="K8" s="24" t="s">
+        <v>56</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M8" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N8" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="O8" s="14"/>
+      <c r="O8" s="26">
+        <v>1000301</v>
+      </c>
       <c r="P8" s="6">
         <v>13001</v>
       </c>
@@ -1560,7 +1555,7 @@
         <v>10004</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>33</v>
@@ -1580,19 +1575,21 @@
       <c r="J9" s="6">
         <v>10004</v>
       </c>
-      <c r="K9" s="26" t="s">
-        <v>58</v>
+      <c r="K9" s="24" t="s">
+        <v>57</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M9" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N9" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O9" s="14"/>
+      <c r="O9" s="26">
+        <v>1000401</v>
+      </c>
       <c r="P9" s="6">
         <v>14001</v>
       </c>
@@ -1605,7 +1602,7 @@
         <v>10005</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>40</v>
@@ -1625,11 +1622,11 @@
       <c r="J10" s="6">
         <v>10005</v>
       </c>
-      <c r="K10" s="26" t="s">
-        <v>59</v>
+      <c r="K10" s="24" t="s">
+        <v>58</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M10" s="10">
         <v>10014</v>
@@ -1637,7 +1634,9 @@
       <c r="N10" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="O10" s="14"/>
+      <c r="O10" s="26">
+        <v>1000501</v>
+      </c>
       <c r="P10" s="6">
         <v>15001</v>
       </c>
@@ -1650,15 +1649,15 @@
         <v>20001</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>33</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="G11" s="27">
+        <v>83</v>
+      </c>
+      <c r="G11" s="25">
         <v>15</v>
       </c>
       <c r="H11" s="10">
@@ -1670,17 +1669,19 @@
       <c r="J11" s="6">
         <v>20001</v>
       </c>
-      <c r="K11" s="26" t="s">
-        <v>85</v>
+      <c r="K11" s="24" t="s">
+        <v>84</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M11" s="12">
         <v>20001</v>
       </c>
       <c r="N11" s="13"/>
-      <c r="O11" s="14"/>
+      <c r="O11" s="26">
+        <v>2000101</v>
+      </c>
       <c r="P11" s="6">
         <v>21001</v>
       </c>
@@ -1693,15 +1694,15 @@
         <v>20002</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>36</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="G12" s="27">
+        <v>83</v>
+      </c>
+      <c r="G12" s="25">
         <v>20</v>
       </c>
       <c r="H12" s="10">
@@ -1713,17 +1714,19 @@
       <c r="J12" s="6">
         <v>20002</v>
       </c>
-      <c r="K12" s="26" t="s">
-        <v>86</v>
+      <c r="K12" s="24" t="s">
+        <v>85</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M12" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N12" s="13"/>
-      <c r="O12" s="14"/>
+      <c r="O12" s="26">
+        <v>2000201</v>
+      </c>
       <c r="P12" s="6">
         <v>22001</v>
       </c>
@@ -1736,15 +1739,15 @@
         <v>20003</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>36</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="G13" s="27">
+        <v>83</v>
+      </c>
+      <c r="G13" s="25">
         <v>23</v>
       </c>
       <c r="H13" s="10">
@@ -1756,17 +1759,19 @@
       <c r="J13" s="6">
         <v>20003</v>
       </c>
-      <c r="K13" s="26" t="s">
-        <v>87</v>
+      <c r="K13" s="24" t="s">
+        <v>86</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M13" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N13" s="13"/>
-      <c r="O13" s="14"/>
+      <c r="O13" s="26">
+        <v>2000301</v>
+      </c>
       <c r="P13" s="6">
         <v>23001</v>
       </c>
@@ -1779,15 +1784,15 @@
         <v>20004</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>33</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="G14" s="27">
+        <v>83</v>
+      </c>
+      <c r="G14" s="25">
         <v>25</v>
       </c>
       <c r="H14" s="10">
@@ -1799,17 +1804,19 @@
       <c r="J14" s="6">
         <v>20004</v>
       </c>
-      <c r="K14" s="25" t="s">
-        <v>88</v>
+      <c r="K14" s="23" t="s">
+        <v>87</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M14" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N14" s="13"/>
-      <c r="O14" s="14"/>
+      <c r="O14" s="26">
+        <v>2000401</v>
+      </c>
       <c r="P14" s="6">
         <v>24001</v>
       </c>
@@ -1822,15 +1829,15 @@
         <v>20005</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>40</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="G15" s="27">
+        <v>83</v>
+      </c>
+      <c r="G15" s="25">
         <v>27</v>
       </c>
       <c r="H15" s="10">
@@ -1842,17 +1849,19 @@
       <c r="J15" s="6">
         <v>20005</v>
       </c>
-      <c r="K15" s="26" t="s">
-        <v>89</v>
+      <c r="K15" s="24" t="s">
+        <v>88</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M15" s="10">
         <v>20014</v>
       </c>
       <c r="N15" s="13"/>
-      <c r="O15" s="14"/>
+      <c r="O15" s="26">
+        <v>2000501</v>
+      </c>
       <c r="P15" s="6">
         <v>25001</v>
       </c>
@@ -1865,15 +1874,15 @@
         <v>30001</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>33</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="G16" s="27">
+        <v>83</v>
+      </c>
+      <c r="G16" s="25">
         <v>30</v>
       </c>
       <c r="H16" s="10">
@@ -1885,17 +1894,19 @@
       <c r="J16" s="6">
         <v>30001</v>
       </c>
-      <c r="K16" s="26" t="s">
-        <v>90</v>
+      <c r="K16" s="24" t="s">
+        <v>89</v>
       </c>
       <c r="L16" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M16" s="12">
         <v>30001</v>
       </c>
       <c r="N16" s="13"/>
-      <c r="O16" s="14"/>
+      <c r="O16" s="26">
+        <v>3000101</v>
+      </c>
       <c r="P16" s="6">
         <v>31001</v>
       </c>
@@ -1908,15 +1919,15 @@
         <v>30002</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>36</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="G17" s="27">
+        <v>83</v>
+      </c>
+      <c r="G17" s="25">
         <v>32</v>
       </c>
       <c r="H17" s="10">
@@ -1928,17 +1939,19 @@
       <c r="J17" s="6">
         <v>30002</v>
       </c>
-      <c r="K17" s="26" t="s">
-        <v>91</v>
+      <c r="K17" s="24" t="s">
+        <v>90</v>
       </c>
       <c r="L17" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M17" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N17" s="13"/>
-      <c r="O17" s="14"/>
+      <c r="O17" s="26">
+        <v>3000201</v>
+      </c>
       <c r="P17" s="6">
         <v>32001</v>
       </c>
@@ -1951,15 +1964,15 @@
         <v>30003</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>36</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="G18" s="27">
+        <v>83</v>
+      </c>
+      <c r="G18" s="25">
         <v>34</v>
       </c>
       <c r="H18" s="10">
@@ -1971,17 +1984,19 @@
       <c r="J18" s="6">
         <v>30003</v>
       </c>
-      <c r="K18" s="26" t="s">
-        <v>92</v>
+      <c r="K18" s="24" t="s">
+        <v>91</v>
       </c>
       <c r="L18" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M18" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N18" s="13"/>
-      <c r="O18" s="14"/>
+      <c r="O18" s="26">
+        <v>3000301</v>
+      </c>
       <c r="P18" s="6">
         <v>33001</v>
       </c>
@@ -1994,15 +2009,15 @@
         <v>30004</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>33</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="G19" s="27">
+        <v>83</v>
+      </c>
+      <c r="G19" s="25">
         <v>35</v>
       </c>
       <c r="H19" s="10">
@@ -2014,17 +2029,19 @@
       <c r="J19" s="6">
         <v>30004</v>
       </c>
-      <c r="K19" s="26" t="s">
-        <v>137</v>
+      <c r="K19" s="24" t="s">
+        <v>136</v>
       </c>
       <c r="L19" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M19" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N19" s="13"/>
-      <c r="O19" s="14"/>
+      <c r="O19" s="26">
+        <v>3000401</v>
+      </c>
       <c r="P19" s="6">
         <v>34001</v>
       </c>
@@ -2037,15 +2054,15 @@
         <v>30005</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>40</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="G20" s="27">
+        <v>83</v>
+      </c>
+      <c r="G20" s="25">
         <v>36</v>
       </c>
       <c r="H20" s="10">
@@ -2057,17 +2074,19 @@
       <c r="J20" s="6">
         <v>30005</v>
       </c>
-      <c r="K20" s="26" t="s">
-        <v>93</v>
+      <c r="K20" s="24" t="s">
+        <v>92</v>
       </c>
       <c r="L20" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M20" s="10">
         <v>30014</v>
       </c>
       <c r="N20" s="13"/>
-      <c r="O20" s="14"/>
+      <c r="O20" s="26">
+        <v>3000501</v>
+      </c>
       <c r="P20" s="6">
         <v>35001</v>
       </c>
@@ -2080,15 +2099,15 @@
         <v>40001</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>33</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="G21" s="27">
+        <v>83</v>
+      </c>
+      <c r="G21" s="25">
         <v>40</v>
       </c>
       <c r="H21" s="10">
@@ -2100,17 +2119,19 @@
       <c r="J21" s="6">
         <v>40001</v>
       </c>
-      <c r="K21" s="26" t="s">
-        <v>94</v>
+      <c r="K21" s="24" t="s">
+        <v>93</v>
       </c>
       <c r="L21" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M21" s="12">
         <v>40001</v>
       </c>
       <c r="N21" s="13"/>
-      <c r="O21" s="14"/>
+      <c r="O21" s="26">
+        <v>4000101</v>
+      </c>
       <c r="P21" s="6">
         <v>41001</v>
       </c>
@@ -2123,15 +2144,15 @@
         <v>40002</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>36</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="G22" s="27">
+        <v>83</v>
+      </c>
+      <c r="G22" s="25">
         <v>42</v>
       </c>
       <c r="H22" s="10">
@@ -2143,17 +2164,19 @@
       <c r="J22" s="6">
         <v>40002</v>
       </c>
-      <c r="K22" s="26" t="s">
-        <v>95</v>
+      <c r="K22" s="24" t="s">
+        <v>94</v>
       </c>
       <c r="L22" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M22" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N22" s="13"/>
-      <c r="O22" s="14"/>
+      <c r="O22" s="26">
+        <v>4000102</v>
+      </c>
       <c r="P22" s="6">
         <v>42001</v>
       </c>
@@ -2166,15 +2189,15 @@
         <v>40003</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>36</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="G23" s="27">
+        <v>83</v>
+      </c>
+      <c r="G23" s="25">
         <v>44</v>
       </c>
       <c r="H23" s="10">
@@ -2186,17 +2209,19 @@
       <c r="J23" s="6">
         <v>40003</v>
       </c>
-      <c r="K23" s="26" t="s">
-        <v>96</v>
+      <c r="K23" s="24" t="s">
+        <v>95</v>
       </c>
       <c r="L23" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M23" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N23" s="13"/>
-      <c r="O23" s="14"/>
+      <c r="O23" s="26">
+        <v>4000103</v>
+      </c>
       <c r="P23" s="6">
         <v>43001</v>
       </c>
@@ -2209,15 +2234,15 @@
         <v>40004</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>33</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="G24" s="27">
+        <v>83</v>
+      </c>
+      <c r="G24" s="25">
         <v>45</v>
       </c>
       <c r="H24" s="10">
@@ -2229,17 +2254,19 @@
       <c r="J24" s="6">
         <v>40004</v>
       </c>
-      <c r="K24" s="26" t="s">
-        <v>103</v>
+      <c r="K24" s="24" t="s">
+        <v>102</v>
       </c>
       <c r="L24" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M24" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N24" s="13"/>
-      <c r="O24" s="14"/>
+      <c r="O24" s="26">
+        <v>4000104</v>
+      </c>
       <c r="P24" s="6">
         <v>44001</v>
       </c>
@@ -2252,15 +2279,15 @@
         <v>40005</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>40</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="G25" s="27">
+        <v>83</v>
+      </c>
+      <c r="G25" s="25">
         <v>46</v>
       </c>
       <c r="H25" s="10">
@@ -2272,17 +2299,19 @@
       <c r="J25" s="6">
         <v>40005</v>
       </c>
-      <c r="K25" s="26" t="s">
-        <v>97</v>
+      <c r="K25" s="24" t="s">
+        <v>96</v>
       </c>
       <c r="L25" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M25" s="10">
         <v>40014</v>
       </c>
       <c r="N25" s="13"/>
-      <c r="O25" s="14"/>
+      <c r="O25" s="26">
+        <v>4000105</v>
+      </c>
       <c r="P25" s="6">
         <v>45001</v>
       </c>
@@ -2295,15 +2324,15 @@
         <v>50001</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>33</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="G26" s="27">
+        <v>83</v>
+      </c>
+      <c r="G26" s="25">
         <v>50</v>
       </c>
       <c r="H26" s="10">
@@ -2315,17 +2344,19 @@
       <c r="J26" s="6">
         <v>50001</v>
       </c>
-      <c r="K26" s="26" t="s">
-        <v>98</v>
+      <c r="K26" s="24" t="s">
+        <v>97</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M26" s="12">
         <v>50001</v>
       </c>
       <c r="N26" s="13"/>
-      <c r="O26" s="14"/>
+      <c r="O26" s="26">
+        <v>5000101</v>
+      </c>
       <c r="P26" s="6">
         <v>51001</v>
       </c>
@@ -2338,15 +2369,15 @@
         <v>50002</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>36</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="G27" s="27">
+        <v>83</v>
+      </c>
+      <c r="G27" s="25">
         <v>52</v>
       </c>
       <c r="H27" s="10">
@@ -2358,17 +2389,19 @@
       <c r="J27" s="6">
         <v>50002</v>
       </c>
-      <c r="K27" s="26" t="s">
-        <v>99</v>
+      <c r="K27" s="24" t="s">
+        <v>98</v>
       </c>
       <c r="L27" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M27" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N27" s="13"/>
-      <c r="O27" s="14"/>
+      <c r="O27" s="26">
+        <v>5000201</v>
+      </c>
       <c r="P27" s="6">
         <v>52001</v>
       </c>
@@ -2381,15 +2414,15 @@
         <v>50003</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>36</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="G28" s="27">
+        <v>83</v>
+      </c>
+      <c r="G28" s="25">
         <v>54</v>
       </c>
       <c r="H28" s="10">
@@ -2401,17 +2434,19 @@
       <c r="J28" s="6">
         <v>50003</v>
       </c>
-      <c r="K28" s="26" t="s">
-        <v>100</v>
+      <c r="K28" s="24" t="s">
+        <v>99</v>
       </c>
       <c r="L28" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M28" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N28" s="13"/>
-      <c r="O28" s="14"/>
+      <c r="O28" s="26">
+        <v>5000301</v>
+      </c>
       <c r="P28" s="6">
         <v>53001</v>
       </c>
@@ -2424,15 +2459,15 @@
         <v>50004</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>33</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="G29" s="27">
+        <v>83</v>
+      </c>
+      <c r="G29" s="25">
         <v>55</v>
       </c>
       <c r="H29" s="10">
@@ -2444,17 +2479,19 @@
       <c r="J29" s="6">
         <v>50004</v>
       </c>
-      <c r="K29" s="26" t="s">
-        <v>101</v>
+      <c r="K29" s="24" t="s">
+        <v>100</v>
       </c>
       <c r="L29" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M29" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N29" s="13"/>
-      <c r="O29" s="14"/>
+      <c r="O29" s="26">
+        <v>5000401</v>
+      </c>
       <c r="P29" s="6">
         <v>54001</v>
       </c>
@@ -2467,15 +2504,15 @@
         <v>50005</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>40</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="G30" s="27">
+        <v>83</v>
+      </c>
+      <c r="G30" s="25">
         <v>56</v>
       </c>
       <c r="H30" s="10">
@@ -2487,17 +2524,19 @@
       <c r="J30" s="6">
         <v>50005</v>
       </c>
-      <c r="K30" s="26" t="s">
-        <v>102</v>
+      <c r="K30" s="24" t="s">
+        <v>101</v>
       </c>
       <c r="L30" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M30" s="10">
         <v>50014</v>
       </c>
       <c r="N30" s="13"/>
-      <c r="O30" s="14"/>
+      <c r="O30" s="26">
+        <v>5000501</v>
+      </c>
       <c r="P30" s="6">
         <v>55001</v>
       </c>
@@ -2505,278 +2544,278 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="3:17" s="23" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C31" s="16">
+    <row r="31" spans="3:17" s="21" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C31" s="14">
         <v>100001</v>
       </c>
-      <c r="D31" s="17" t="s">
+      <c r="D31" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="E31" s="18" t="s">
+      <c r="E31" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="F31" s="18" t="s">
+      <c r="F31" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="G31" s="19">
+      <c r="G31" s="17">
         <v>1</v>
       </c>
-      <c r="H31" s="19">
+      <c r="H31" s="17">
         <v>0</v>
       </c>
-      <c r="I31" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="J31" s="16">
+      <c r="I31" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J31" s="14">
         <v>10001</v>
       </c>
-      <c r="K31" s="24" t="s">
+      <c r="K31" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="L31" s="19" t="s">
+      <c r="L31" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="M31" s="19"/>
-      <c r="N31" s="21"/>
-      <c r="O31" s="22"/>
-      <c r="P31" s="16">
+      <c r="M31" s="17"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="14">
         <v>10001</v>
       </c>
-      <c r="Q31" s="16"/>
-    </row>
-    <row r="32" spans="3:17" s="23" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C32" s="16">
+      <c r="Q31" s="14"/>
+    </row>
+    <row r="32" spans="3:17" s="21" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C32" s="14">
         <v>100101</v>
       </c>
-      <c r="D32" s="17" t="s">
+      <c r="D32" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="E32" s="18" t="s">
+      <c r="E32" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="F32" s="18" t="s">
+      <c r="F32" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="G32" s="19">
+      <c r="G32" s="17">
         <v>1</v>
       </c>
-      <c r="H32" s="19">
+      <c r="H32" s="17">
         <v>0</v>
       </c>
-      <c r="I32" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="J32" s="16">
+      <c r="I32" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J32" s="14">
         <v>10001</v>
       </c>
-      <c r="K32" s="20" t="s">
+      <c r="K32" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="L32" s="19" t="s">
+      <c r="L32" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="M32" s="19"/>
-      <c r="N32" s="21"/>
-      <c r="O32" s="22"/>
-      <c r="P32" s="16">
+      <c r="M32" s="17"/>
+      <c r="N32" s="19"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="14">
         <v>10001</v>
       </c>
-      <c r="Q32" s="16"/>
-    </row>
-    <row r="33" spans="3:17" s="23" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C33" s="16">
+      <c r="Q32" s="14"/>
+    </row>
+    <row r="33" spans="3:17" s="21" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C33" s="14">
         <v>100201</v>
       </c>
-      <c r="D33" s="17" t="s">
+      <c r="D33" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="E33" s="18" t="s">
+      <c r="E33" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="F33" s="18" t="s">
+      <c r="F33" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="G33" s="19">
+      <c r="G33" s="17">
         <v>18</v>
       </c>
-      <c r="H33" s="19">
+      <c r="H33" s="17">
         <v>0</v>
       </c>
-      <c r="I33" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="J33" s="16">
+      <c r="I33" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J33" s="14">
         <v>10001</v>
       </c>
-      <c r="K33" s="20" t="s">
+      <c r="K33" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="L33" s="19" t="s">
+      <c r="L33" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="M33" s="19"/>
-      <c r="N33" s="21"/>
-      <c r="O33" s="22"/>
-      <c r="P33" s="16">
+      <c r="M33" s="17"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="14">
         <v>10001</v>
       </c>
-      <c r="Q33" s="16"/>
-    </row>
-    <row r="34" spans="3:17" s="23" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C34" s="16">
+      <c r="Q33" s="14"/>
+    </row>
+    <row r="34" spans="3:17" s="21" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C34" s="14">
         <v>100301</v>
       </c>
-      <c r="D34" s="17" t="s">
+      <c r="D34" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="E34" s="18" t="s">
+      <c r="E34" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="F34" s="18" t="s">
+      <c r="F34" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="G34" s="19">
+      <c r="G34" s="17">
         <v>30</v>
       </c>
-      <c r="H34" s="19">
+      <c r="H34" s="17">
         <v>0</v>
       </c>
-      <c r="I34" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="J34" s="16">
+      <c r="I34" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J34" s="14">
         <v>10001</v>
       </c>
-      <c r="K34" s="20" t="s">
+      <c r="K34" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="L34" s="19" t="s">
+      <c r="L34" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="M34" s="19"/>
-      <c r="N34" s="21"/>
-      <c r="O34" s="22"/>
-      <c r="P34" s="16">
+      <c r="M34" s="17"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="20"/>
+      <c r="P34" s="14">
         <v>10001</v>
       </c>
-      <c r="Q34" s="16"/>
-    </row>
-    <row r="35" spans="3:17" s="23" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C35" s="16">
+      <c r="Q34" s="14"/>
+    </row>
+    <row r="35" spans="3:17" s="21" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C35" s="14">
         <v>100401</v>
       </c>
-      <c r="D35" s="17" t="s">
+      <c r="D35" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="E35" s="18" t="s">
+      <c r="E35" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="F35" s="18" t="s">
+      <c r="F35" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="G35" s="19">
+      <c r="G35" s="17">
         <v>40</v>
       </c>
-      <c r="H35" s="19">
+      <c r="H35" s="17">
         <v>0</v>
       </c>
-      <c r="I35" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="J35" s="16">
+      <c r="I35" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J35" s="14">
         <v>10001</v>
       </c>
-      <c r="K35" s="20" t="s">
+      <c r="K35" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="L35" s="19" t="s">
+      <c r="L35" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="M35" s="19"/>
-      <c r="N35" s="21"/>
-      <c r="O35" s="22"/>
-      <c r="P35" s="16">
+      <c r="M35" s="17"/>
+      <c r="N35" s="19"/>
+      <c r="O35" s="20"/>
+      <c r="P35" s="14">
         <v>10001</v>
       </c>
-      <c r="Q35" s="16"/>
-    </row>
-    <row r="36" spans="3:17" s="23" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C36" s="16">
+      <c r="Q35" s="14"/>
+    </row>
+    <row r="36" spans="3:17" s="21" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C36" s="14">
         <v>100501</v>
       </c>
-      <c r="D36" s="17" t="s">
+      <c r="D36" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="E36" s="18" t="s">
+      <c r="E36" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="F36" s="18" t="s">
+      <c r="F36" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="G36" s="19">
+      <c r="G36" s="17">
         <v>50</v>
       </c>
-      <c r="H36" s="19">
+      <c r="H36" s="17">
         <v>0</v>
       </c>
-      <c r="I36" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="J36" s="16">
+      <c r="I36" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J36" s="14">
         <v>10001</v>
       </c>
-      <c r="K36" s="20" t="s">
+      <c r="K36" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="L36" s="19" t="s">
+      <c r="L36" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="M36" s="19"/>
-      <c r="N36" s="21"/>
-      <c r="O36" s="22"/>
-      <c r="P36" s="16">
+      <c r="M36" s="17"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="20"/>
+      <c r="P36" s="14">
         <v>10001</v>
       </c>
-      <c r="Q36" s="16"/>
-    </row>
-    <row r="37" spans="3:17" s="23" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C37" s="16">
+      <c r="Q36" s="14"/>
+    </row>
+    <row r="37" spans="3:17" s="21" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C37" s="14">
         <v>100601</v>
       </c>
-      <c r="D37" s="17" t="s">
+      <c r="D37" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="E37" s="18" t="s">
+      <c r="E37" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="F37" s="18" t="s">
+      <c r="F37" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="G37" s="19">
+      <c r="G37" s="17">
         <v>60</v>
       </c>
-      <c r="H37" s="19">
+      <c r="H37" s="17">
         <v>0</v>
       </c>
-      <c r="I37" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="J37" s="16">
+      <c r="I37" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J37" s="14">
         <v>10001</v>
       </c>
-      <c r="K37" s="20" t="s">
+      <c r="K37" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="L37" s="19" t="s">
+      <c r="L37" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="M37" s="19"/>
-      <c r="N37" s="21"/>
-      <c r="O37" s="22"/>
-      <c r="P37" s="16">
+      <c r="M37" s="17"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="20"/>
+      <c r="P37" s="14">
         <v>10001</v>
       </c>
-      <c r="Q37" s="16"/>
+      <c r="Q37" s="14"/>
     </row>
     <row r="38" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="39" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/Unity/Assets/Config/Excel/DungeonConfig.xlsx
+++ b/Unity/Assets/Config/Excel/DungeonConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE962BEC-4B59-4BA4-ACD8-82BAB11F86FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D785B61A-5B13-4D23-A812-BBDE55228D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DungeonProto" sheetId="1" r:id="rId1"/>
@@ -1251,8 +1251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:Q42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Unity/Assets/Config/Excel/DungeonConfig.xlsx
+++ b/Unity/Assets/Config/Excel/DungeonConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D785B61A-5B13-4D23-A812-BBDE55228D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DB50AA7-F10D-41CF-8BE3-62235801133D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="L3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="M3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="139">
   <si>
     <t>Id</t>
   </si>
@@ -578,6 +578,13 @@
   </si>
   <si>
     <t>-2130,50,-17555</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>loading图</t>
+  </si>
+  <si>
+    <t>LoadingRes</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -585,7 +592,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -661,8 +668,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -702,6 +716,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14966277047029022"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14938810388500626"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -787,7 +807,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -863,6 +883,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1249,10 +1275,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:Q42"/>
+  <dimension ref="C3:R37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" topLeftCell="C24" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1261,14 +1287,16 @@
     <col min="4" max="6" width="16.75" customWidth="1"/>
     <col min="7" max="8" width="17.25" customWidth="1"/>
     <col min="9" max="9" width="37.25" customWidth="1"/>
-    <col min="10" max="11" width="17.25" customWidth="1"/>
-    <col min="12" max="13" width="26.625" customWidth="1"/>
-    <col min="14" max="14" width="73.375" customWidth="1"/>
-    <col min="15" max="15" width="87" customWidth="1"/>
-    <col min="16" max="17" width="23.125" customWidth="1"/>
+    <col min="10" max="10" width="17.25" customWidth="1"/>
+    <col min="11" max="11" width="16.75" customWidth="1"/>
+    <col min="12" max="12" width="17.25" customWidth="1"/>
+    <col min="13" max="14" width="26.625" customWidth="1"/>
+    <col min="15" max="15" width="73.375" customWidth="1"/>
+    <col min="16" max="16" width="87" customWidth="1"/>
+    <col min="17" max="18" width="23.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:18" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1294,28 +1322,31 @@
         <v>7</v>
       </c>
       <c r="K3" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="L3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="P3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="Q3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="R3" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:18" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
@@ -1341,28 +1372,31 @@
         <v>21</v>
       </c>
       <c r="K4" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="L4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="M4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="N4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="O4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="P4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="Q4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="R4" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="3:18" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="4" t="s">
         <v>29</v>
       </c>
@@ -1388,28 +1422,31 @@
         <v>29</v>
       </c>
       <c r="K5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="M5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="N5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="O5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="P5" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>29</v>
       </c>
       <c r="Q5" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R5" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="3:18" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="6">
         <v>10001</v>
       </c>
@@ -1434,29 +1471,32 @@
       <c r="J6" s="6">
         <v>10001</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="K6" s="27">
+        <v>0</v>
+      </c>
+      <c r="L6" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="M6" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="M6" s="12">
+      <c r="N6" s="12">
         <v>10001</v>
       </c>
-      <c r="N6" s="13" t="s">
+      <c r="O6" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="O6" s="26">
+      <c r="P6" s="26">
         <v>1000101</v>
       </c>
-      <c r="P6" s="6">
+      <c r="Q6" s="6">
         <v>10001</v>
       </c>
-      <c r="Q6" s="6">
+      <c r="R6" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="3:18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" s="6">
         <v>10002</v>
       </c>
@@ -1481,29 +1521,32 @@
       <c r="J7" s="6">
         <v>10002</v>
       </c>
-      <c r="K7" s="23" t="s">
+      <c r="K7" s="28">
+        <v>101</v>
+      </c>
+      <c r="L7" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="L7" s="10" t="s">
+      <c r="M7" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="M7" s="12" t="s">
+      <c r="N7" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="N7" s="13" t="s">
+      <c r="O7" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="O7" s="26">
+      <c r="P7" s="26">
         <v>1000201</v>
       </c>
-      <c r="P7" s="6">
+      <c r="Q7" s="6">
         <v>12001</v>
       </c>
-      <c r="Q7" s="6">
+      <c r="R7" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="3:18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="6">
         <v>10003</v>
       </c>
@@ -1528,29 +1571,32 @@
       <c r="J8" s="6">
         <v>10003</v>
       </c>
-      <c r="K8" s="24" t="s">
+      <c r="K8" s="28">
+        <v>101</v>
+      </c>
+      <c r="L8" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="L8" s="10" t="s">
+      <c r="M8" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="M8" s="12" t="s">
+      <c r="N8" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="N8" s="13" t="s">
+      <c r="O8" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="O8" s="26">
+      <c r="P8" s="26">
         <v>1000301</v>
       </c>
-      <c r="P8" s="6">
+      <c r="Q8" s="6">
         <v>13001</v>
       </c>
-      <c r="Q8" s="6">
+      <c r="R8" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="3:18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="6">
         <v>10004</v>
       </c>
@@ -1575,29 +1621,32 @@
       <c r="J9" s="6">
         <v>10004</v>
       </c>
-      <c r="K9" s="24" t="s">
+      <c r="K9" s="28">
+        <v>101</v>
+      </c>
+      <c r="L9" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="L9" s="10" t="s">
+      <c r="M9" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="M9" s="12" t="s">
+      <c r="N9" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="N9" s="13" t="s">
+      <c r="O9" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O9" s="26">
+      <c r="P9" s="26">
         <v>1000401</v>
       </c>
-      <c r="P9" s="6">
+      <c r="Q9" s="6">
         <v>14001</v>
       </c>
-      <c r="Q9" s="6">
+      <c r="R9" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="3:18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="6">
         <v>10005</v>
       </c>
@@ -1622,29 +1671,32 @@
       <c r="J10" s="6">
         <v>10005</v>
       </c>
-      <c r="K10" s="24" t="s">
+      <c r="K10" s="28">
+        <v>101</v>
+      </c>
+      <c r="L10" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="L10" s="10" t="s">
+      <c r="M10" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="M10" s="10">
+      <c r="N10" s="10">
         <v>10014</v>
       </c>
-      <c r="N10" s="13" t="s">
+      <c r="O10" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="O10" s="26">
+      <c r="P10" s="26">
         <v>1000501</v>
       </c>
-      <c r="P10" s="6">
+      <c r="Q10" s="6">
         <v>15001</v>
       </c>
-      <c r="Q10" s="6">
+      <c r="R10" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="3:18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="6">
         <v>20001</v>
       </c>
@@ -1669,27 +1721,30 @@
       <c r="J11" s="6">
         <v>20001</v>
       </c>
-      <c r="K11" s="24" t="s">
+      <c r="K11" s="28">
+        <v>201</v>
+      </c>
+      <c r="L11" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="L11" s="10" t="s">
+      <c r="M11" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="M11" s="12">
+      <c r="N11" s="12">
         <v>20001</v>
       </c>
-      <c r="N11" s="13"/>
-      <c r="O11" s="26">
+      <c r="O11" s="13"/>
+      <c r="P11" s="26">
         <v>2000101</v>
       </c>
-      <c r="P11" s="6">
+      <c r="Q11" s="6">
         <v>21001</v>
       </c>
-      <c r="Q11" s="6">
+      <c r="R11" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="3:18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="6">
         <v>20002</v>
       </c>
@@ -1714,27 +1769,30 @@
       <c r="J12" s="6">
         <v>20002</v>
       </c>
-      <c r="K12" s="24" t="s">
+      <c r="K12" s="28">
+        <v>201</v>
+      </c>
+      <c r="L12" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="L12" s="10" t="s">
+      <c r="M12" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="M12" s="12" t="s">
+      <c r="N12" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="N12" s="13"/>
-      <c r="O12" s="26">
+      <c r="O12" s="13"/>
+      <c r="P12" s="26">
         <v>2000201</v>
       </c>
-      <c r="P12" s="6">
+      <c r="Q12" s="6">
         <v>22001</v>
       </c>
-      <c r="Q12" s="6">
+      <c r="R12" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="3:18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="6">
         <v>20003</v>
       </c>
@@ -1759,27 +1817,30 @@
       <c r="J13" s="6">
         <v>20003</v>
       </c>
-      <c r="K13" s="24" t="s">
+      <c r="K13" s="28">
+        <v>201</v>
+      </c>
+      <c r="L13" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="L13" s="10" t="s">
+      <c r="M13" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="M13" s="12" t="s">
+      <c r="N13" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="N13" s="13"/>
-      <c r="O13" s="26">
+      <c r="O13" s="13"/>
+      <c r="P13" s="26">
         <v>2000301</v>
       </c>
-      <c r="P13" s="6">
+      <c r="Q13" s="6">
         <v>23001</v>
       </c>
-      <c r="Q13" s="6">
+      <c r="R13" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="3:18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="6">
         <v>20004</v>
       </c>
@@ -1804,27 +1865,30 @@
       <c r="J14" s="6">
         <v>20004</v>
       </c>
-      <c r="K14" s="23" t="s">
+      <c r="K14" s="28">
+        <v>201</v>
+      </c>
+      <c r="L14" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="L14" s="10" t="s">
+      <c r="M14" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="M14" s="12" t="s">
+      <c r="N14" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="N14" s="13"/>
-      <c r="O14" s="26">
+      <c r="O14" s="13"/>
+      <c r="P14" s="26">
         <v>2000401</v>
       </c>
-      <c r="P14" s="6">
+      <c r="Q14" s="6">
         <v>24001</v>
       </c>
-      <c r="Q14" s="6">
+      <c r="R14" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="3:18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" s="6">
         <v>20005</v>
       </c>
@@ -1849,27 +1913,30 @@
       <c r="J15" s="6">
         <v>20005</v>
       </c>
-      <c r="K15" s="24" t="s">
+      <c r="K15" s="28">
+        <v>201</v>
+      </c>
+      <c r="L15" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="L15" s="10" t="s">
+      <c r="M15" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="M15" s="10">
+      <c r="N15" s="10">
         <v>20014</v>
       </c>
-      <c r="N15" s="13"/>
-      <c r="O15" s="26">
+      <c r="O15" s="13"/>
+      <c r="P15" s="26">
         <v>2000501</v>
       </c>
-      <c r="P15" s="6">
+      <c r="Q15" s="6">
         <v>25001</v>
       </c>
-      <c r="Q15" s="6">
+      <c r="R15" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="3:18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" s="6">
         <v>30001</v>
       </c>
@@ -1894,27 +1961,30 @@
       <c r="J16" s="6">
         <v>30001</v>
       </c>
-      <c r="K16" s="24" t="s">
+      <c r="K16" s="28">
+        <v>301</v>
+      </c>
+      <c r="L16" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="L16" s="12" t="s">
+      <c r="M16" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="M16" s="12">
+      <c r="N16" s="12">
         <v>30001</v>
       </c>
-      <c r="N16" s="13"/>
-      <c r="O16" s="26">
+      <c r="O16" s="13"/>
+      <c r="P16" s="26">
         <v>3000101</v>
       </c>
-      <c r="P16" s="6">
+      <c r="Q16" s="6">
         <v>31001</v>
       </c>
-      <c r="Q16" s="6">
+      <c r="R16" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" s="6">
         <v>30002</v>
       </c>
@@ -1939,27 +2009,30 @@
       <c r="J17" s="6">
         <v>30002</v>
       </c>
-      <c r="K17" s="24" t="s">
+      <c r="K17" s="28">
+        <v>301</v>
+      </c>
+      <c r="L17" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="L17" s="12" t="s">
+      <c r="M17" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="M17" s="12" t="s">
+      <c r="N17" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="N17" s="13"/>
-      <c r="O17" s="26">
+      <c r="O17" s="13"/>
+      <c r="P17" s="26">
         <v>3000201</v>
       </c>
-      <c r="P17" s="6">
+      <c r="Q17" s="6">
         <v>32001</v>
       </c>
-      <c r="Q17" s="6">
+      <c r="R17" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="3:18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="6">
         <v>30003</v>
       </c>
@@ -1984,27 +2057,30 @@
       <c r="J18" s="6">
         <v>30003</v>
       </c>
-      <c r="K18" s="24" t="s">
+      <c r="K18" s="28">
+        <v>301</v>
+      </c>
+      <c r="L18" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="L18" s="12" t="s">
+      <c r="M18" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="M18" s="12" t="s">
+      <c r="N18" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="N18" s="13"/>
-      <c r="O18" s="26">
+      <c r="O18" s="13"/>
+      <c r="P18" s="26">
         <v>3000301</v>
       </c>
-      <c r="P18" s="6">
+      <c r="Q18" s="6">
         <v>33001</v>
       </c>
-      <c r="Q18" s="6">
+      <c r="R18" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="3:18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="6">
         <v>30004</v>
       </c>
@@ -2029,27 +2105,30 @@
       <c r="J19" s="6">
         <v>30004</v>
       </c>
-      <c r="K19" s="24" t="s">
+      <c r="K19" s="28">
+        <v>301</v>
+      </c>
+      <c r="L19" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="L19" s="12" t="s">
+      <c r="M19" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="M19" s="12" t="s">
+      <c r="N19" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="N19" s="13"/>
-      <c r="O19" s="26">
+      <c r="O19" s="13"/>
+      <c r="P19" s="26">
         <v>3000401</v>
       </c>
-      <c r="P19" s="6">
+      <c r="Q19" s="6">
         <v>34001</v>
       </c>
-      <c r="Q19" s="6">
+      <c r="R19" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="3:18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C20" s="6">
         <v>30005</v>
       </c>
@@ -2074,27 +2153,30 @@
       <c r="J20" s="6">
         <v>30005</v>
       </c>
-      <c r="K20" s="24" t="s">
+      <c r="K20" s="28">
+        <v>301</v>
+      </c>
+      <c r="L20" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="L20" s="12" t="s">
+      <c r="M20" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="M20" s="10">
+      <c r="N20" s="10">
         <v>30014</v>
       </c>
-      <c r="N20" s="13"/>
-      <c r="O20" s="26">
+      <c r="O20" s="13"/>
+      <c r="P20" s="26">
         <v>3000501</v>
       </c>
-      <c r="P20" s="6">
+      <c r="Q20" s="6">
         <v>35001</v>
       </c>
-      <c r="Q20" s="6">
+      <c r="R20" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="3:18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C21" s="6">
         <v>40001</v>
       </c>
@@ -2119,27 +2201,30 @@
       <c r="J21" s="6">
         <v>40001</v>
       </c>
-      <c r="K21" s="24" t="s">
+      <c r="K21" s="27">
+        <v>401</v>
+      </c>
+      <c r="L21" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="L21" s="10" t="s">
+      <c r="M21" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="M21" s="12">
+      <c r="N21" s="12">
         <v>40001</v>
       </c>
-      <c r="N21" s="13"/>
-      <c r="O21" s="26">
+      <c r="O21" s="13"/>
+      <c r="P21" s="26">
         <v>4000101</v>
       </c>
-      <c r="P21" s="6">
+      <c r="Q21" s="6">
         <v>41001</v>
       </c>
-      <c r="Q21" s="6">
+      <c r="R21" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="3:18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C22" s="6">
         <v>40002</v>
       </c>
@@ -2164,27 +2249,30 @@
       <c r="J22" s="6">
         <v>40002</v>
       </c>
-      <c r="K22" s="24" t="s">
+      <c r="K22" s="27">
+        <v>401</v>
+      </c>
+      <c r="L22" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="L22" s="10" t="s">
+      <c r="M22" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="M22" s="12" t="s">
+      <c r="N22" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="N22" s="13"/>
-      <c r="O22" s="26">
+      <c r="O22" s="13"/>
+      <c r="P22" s="26">
         <v>4000102</v>
       </c>
-      <c r="P22" s="6">
+      <c r="Q22" s="6">
         <v>42001</v>
       </c>
-      <c r="Q22" s="6">
+      <c r="R22" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="3:18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="6">
         <v>40003</v>
       </c>
@@ -2209,27 +2297,30 @@
       <c r="J23" s="6">
         <v>40003</v>
       </c>
-      <c r="K23" s="24" t="s">
+      <c r="K23" s="27">
+        <v>401</v>
+      </c>
+      <c r="L23" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="L23" s="12" t="s">
+      <c r="M23" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="M23" s="12" t="s">
+      <c r="N23" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="N23" s="13"/>
-      <c r="O23" s="26">
+      <c r="O23" s="13"/>
+      <c r="P23" s="26">
         <v>4000103</v>
       </c>
-      <c r="P23" s="6">
+      <c r="Q23" s="6">
         <v>43001</v>
       </c>
-      <c r="Q23" s="6">
+      <c r="R23" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="3:18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C24" s="6">
         <v>40004</v>
       </c>
@@ -2254,27 +2345,30 @@
       <c r="J24" s="6">
         <v>40004</v>
       </c>
-      <c r="K24" s="24" t="s">
+      <c r="K24" s="27">
+        <v>401</v>
+      </c>
+      <c r="L24" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="L24" s="12" t="s">
+      <c r="M24" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="M24" s="12" t="s">
+      <c r="N24" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="N24" s="13"/>
-      <c r="O24" s="26">
+      <c r="O24" s="13"/>
+      <c r="P24" s="26">
         <v>4000104</v>
       </c>
-      <c r="P24" s="6">
+      <c r="Q24" s="6">
         <v>44001</v>
       </c>
-      <c r="Q24" s="6">
+      <c r="R24" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="3:18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25" s="6">
         <v>40005</v>
       </c>
@@ -2299,27 +2393,30 @@
       <c r="J25" s="6">
         <v>40005</v>
       </c>
-      <c r="K25" s="24" t="s">
+      <c r="K25" s="27">
+        <v>401</v>
+      </c>
+      <c r="L25" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="L25" s="10" t="s">
+      <c r="M25" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="M25" s="10">
+      <c r="N25" s="10">
         <v>40014</v>
       </c>
-      <c r="N25" s="13"/>
-      <c r="O25" s="26">
+      <c r="O25" s="13"/>
+      <c r="P25" s="26">
         <v>4000105</v>
       </c>
-      <c r="P25" s="6">
+      <c r="Q25" s="6">
         <v>45001</v>
       </c>
-      <c r="Q25" s="6">
+      <c r="R25" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="3:18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" s="6">
         <v>50001</v>
       </c>
@@ -2344,27 +2441,30 @@
       <c r="J26" s="6">
         <v>50001</v>
       </c>
-      <c r="K26" s="24" t="s">
+      <c r="K26" s="27">
+        <v>501</v>
+      </c>
+      <c r="L26" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="L26" s="10" t="s">
+      <c r="M26" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="M26" s="12">
+      <c r="N26" s="12">
         <v>50001</v>
       </c>
-      <c r="N26" s="13"/>
-      <c r="O26" s="26">
+      <c r="O26" s="13"/>
+      <c r="P26" s="26">
         <v>5000101</v>
       </c>
-      <c r="P26" s="6">
+      <c r="Q26" s="6">
         <v>51001</v>
       </c>
-      <c r="Q26" s="6">
+      <c r="R26" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="3:18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C27" s="6">
         <v>50002</v>
       </c>
@@ -2389,27 +2489,30 @@
       <c r="J27" s="6">
         <v>50002</v>
       </c>
-      <c r="K27" s="24" t="s">
+      <c r="K27" s="27">
+        <v>501</v>
+      </c>
+      <c r="L27" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="L27" s="10" t="s">
+      <c r="M27" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="M27" s="12" t="s">
+      <c r="N27" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="N27" s="13"/>
-      <c r="O27" s="26">
+      <c r="O27" s="13"/>
+      <c r="P27" s="26">
         <v>5000201</v>
       </c>
-      <c r="P27" s="6">
+      <c r="Q27" s="6">
         <v>52001</v>
       </c>
-      <c r="Q27" s="6">
+      <c r="R27" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="3:18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C28" s="6">
         <v>50003</v>
       </c>
@@ -2434,27 +2537,30 @@
       <c r="J28" s="6">
         <v>50003</v>
       </c>
-      <c r="K28" s="24" t="s">
+      <c r="K28" s="27">
+        <v>501</v>
+      </c>
+      <c r="L28" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="L28" s="10" t="s">
+      <c r="M28" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="M28" s="12" t="s">
+      <c r="N28" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="N28" s="13"/>
-      <c r="O28" s="26">
+      <c r="O28" s="13"/>
+      <c r="P28" s="26">
         <v>5000301</v>
       </c>
-      <c r="P28" s="6">
+      <c r="Q28" s="6">
         <v>53001</v>
       </c>
-      <c r="Q28" s="6">
+      <c r="R28" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="3:18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="6">
         <v>50004</v>
       </c>
@@ -2479,27 +2585,30 @@
       <c r="J29" s="6">
         <v>50004</v>
       </c>
-      <c r="K29" s="24" t="s">
+      <c r="K29" s="27">
+        <v>501</v>
+      </c>
+      <c r="L29" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="L29" s="12" t="s">
+      <c r="M29" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="M29" s="12" t="s">
+      <c r="N29" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="N29" s="13"/>
-      <c r="O29" s="26">
+      <c r="O29" s="13"/>
+      <c r="P29" s="26">
         <v>5000401</v>
       </c>
-      <c r="P29" s="6">
+      <c r="Q29" s="6">
         <v>54001</v>
       </c>
-      <c r="Q29" s="6">
+      <c r="R29" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="3:18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C30" s="6">
         <v>50005</v>
       </c>
@@ -2524,27 +2633,30 @@
       <c r="J30" s="6">
         <v>50005</v>
       </c>
-      <c r="K30" s="24" t="s">
+      <c r="K30" s="27">
+        <v>501</v>
+      </c>
+      <c r="L30" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="L30" s="12" t="s">
+      <c r="M30" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="M30" s="10">
+      <c r="N30" s="10">
         <v>50014</v>
       </c>
-      <c r="N30" s="13"/>
-      <c r="O30" s="26">
+      <c r="O30" s="13"/>
+      <c r="P30" s="26">
         <v>5000501</v>
       </c>
-      <c r="P30" s="6">
+      <c r="Q30" s="6">
         <v>55001</v>
       </c>
-      <c r="Q30" s="6">
+      <c r="R30" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="3:17" s="21" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="3:18" s="21" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C31" s="14">
         <v>100001</v>
       </c>
@@ -2569,21 +2681,24 @@
       <c r="J31" s="14">
         <v>10001</v>
       </c>
-      <c r="K31" s="22" t="s">
+      <c r="K31" s="27">
+        <v>0</v>
+      </c>
+      <c r="L31" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="L31" s="17" t="s">
+      <c r="M31" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="M31" s="17"/>
-      <c r="N31" s="19"/>
-      <c r="O31" s="20"/>
-      <c r="P31" s="14">
+      <c r="N31" s="17"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="20"/>
+      <c r="Q31" s="14">
         <v>10001</v>
       </c>
-      <c r="Q31" s="14"/>
-    </row>
-    <row r="32" spans="3:17" s="21" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R31" s="14"/>
+    </row>
+    <row r="32" spans="3:18" s="21" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C32" s="14">
         <v>100101</v>
       </c>
@@ -2608,21 +2723,24 @@
       <c r="J32" s="14">
         <v>10001</v>
       </c>
-      <c r="K32" s="18" t="s">
+      <c r="K32" s="27">
+        <v>0</v>
+      </c>
+      <c r="L32" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="L32" s="17" t="s">
+      <c r="M32" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="M32" s="17"/>
-      <c r="N32" s="19"/>
-      <c r="O32" s="20"/>
-      <c r="P32" s="14">
+      <c r="N32" s="17"/>
+      <c r="O32" s="19"/>
+      <c r="P32" s="20"/>
+      <c r="Q32" s="14">
         <v>10001</v>
       </c>
-      <c r="Q32" s="14"/>
-    </row>
-    <row r="33" spans="3:17" s="21" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R32" s="14"/>
+    </row>
+    <row r="33" spans="3:18" s="21" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C33" s="14">
         <v>100201</v>
       </c>
@@ -2647,21 +2765,24 @@
       <c r="J33" s="14">
         <v>10001</v>
       </c>
-      <c r="K33" s="18" t="s">
+      <c r="K33" s="27">
+        <v>0</v>
+      </c>
+      <c r="L33" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="L33" s="17" t="s">
+      <c r="M33" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="M33" s="17"/>
-      <c r="N33" s="19"/>
-      <c r="O33" s="20"/>
-      <c r="P33" s="14">
+      <c r="N33" s="17"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="20"/>
+      <c r="Q33" s="14">
         <v>10001</v>
       </c>
-      <c r="Q33" s="14"/>
-    </row>
-    <row r="34" spans="3:17" s="21" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R33" s="14"/>
+    </row>
+    <row r="34" spans="3:18" s="21" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C34" s="14">
         <v>100301</v>
       </c>
@@ -2686,21 +2807,24 @@
       <c r="J34" s="14">
         <v>10001</v>
       </c>
-      <c r="K34" s="18" t="s">
+      <c r="K34" s="27">
+        <v>0</v>
+      </c>
+      <c r="L34" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="L34" s="17" t="s">
+      <c r="M34" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="M34" s="17"/>
-      <c r="N34" s="19"/>
-      <c r="O34" s="20"/>
-      <c r="P34" s="14">
+      <c r="N34" s="17"/>
+      <c r="O34" s="19"/>
+      <c r="P34" s="20"/>
+      <c r="Q34" s="14">
         <v>10001</v>
       </c>
-      <c r="Q34" s="14"/>
-    </row>
-    <row r="35" spans="3:17" s="21" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R34" s="14"/>
+    </row>
+    <row r="35" spans="3:18" s="21" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C35" s="14">
         <v>100401</v>
       </c>
@@ -2725,21 +2849,24 @@
       <c r="J35" s="14">
         <v>10001</v>
       </c>
-      <c r="K35" s="18" t="s">
+      <c r="K35" s="27">
+        <v>0</v>
+      </c>
+      <c r="L35" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="L35" s="17" t="s">
+      <c r="M35" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="M35" s="17"/>
-      <c r="N35" s="19"/>
-      <c r="O35" s="20"/>
-      <c r="P35" s="14">
+      <c r="N35" s="17"/>
+      <c r="O35" s="19"/>
+      <c r="P35" s="20"/>
+      <c r="Q35" s="14">
         <v>10001</v>
       </c>
-      <c r="Q35" s="14"/>
-    </row>
-    <row r="36" spans="3:17" s="21" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R35" s="14"/>
+    </row>
+    <row r="36" spans="3:18" s="21" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C36" s="14">
         <v>100501</v>
       </c>
@@ -2764,21 +2891,24 @@
       <c r="J36" s="14">
         <v>10001</v>
       </c>
-      <c r="K36" s="18" t="s">
+      <c r="K36" s="27">
+        <v>0</v>
+      </c>
+      <c r="L36" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="L36" s="17" t="s">
+      <c r="M36" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="M36" s="17"/>
-      <c r="N36" s="19"/>
-      <c r="O36" s="20"/>
-      <c r="P36" s="14">
+      <c r="N36" s="17"/>
+      <c r="O36" s="19"/>
+      <c r="P36" s="20"/>
+      <c r="Q36" s="14">
         <v>10001</v>
       </c>
-      <c r="Q36" s="14"/>
-    </row>
-    <row r="37" spans="3:17" s="21" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R36" s="14"/>
+    </row>
+    <row r="37" spans="3:18" s="21" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C37" s="14">
         <v>100601</v>
       </c>
@@ -2803,25 +2933,23 @@
       <c r="J37" s="14">
         <v>10001</v>
       </c>
-      <c r="K37" s="18" t="s">
+      <c r="K37" s="27">
+        <v>0</v>
+      </c>
+      <c r="L37" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="L37" s="17" t="s">
+      <c r="M37" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="M37" s="17"/>
-      <c r="N37" s="19"/>
-      <c r="O37" s="20"/>
-      <c r="P37" s="14">
+      <c r="N37" s="17"/>
+      <c r="O37" s="19"/>
+      <c r="P37" s="20"/>
+      <c r="Q37" s="14">
         <v>10001</v>
       </c>
-      <c r="Q37" s="14"/>
-    </row>
-    <row r="38" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="39" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="40" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="41" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="R37" s="14"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Unity/Assets/Config/Excel/DungeonConfig.xlsx
+++ b/Unity/Assets/Config/Excel/DungeonConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DB50AA7-F10D-41CF-8BE3-62235801133D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B8F819C-45FA-4FA3-B4B8-906D4CC316CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1277,8 +1277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:R37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C24" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1471,8 +1471,8 @@
       <c r="J6" s="6">
         <v>10001</v>
       </c>
-      <c r="K6" s="27">
-        <v>0</v>
+      <c r="K6" s="28">
+        <v>101</v>
       </c>
       <c r="L6" s="10" t="s">
         <v>48</v>

--- a/Unity/Assets/Config/Excel/DungeonConfig.xlsx
+++ b/Unity/Assets/Config/Excel/DungeonConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B8F819C-45FA-4FA3-B4B8-906D4CC316CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB554AA5-C67B-4F4C-8B6F-909783D7BDFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="147">
   <si>
     <t>Id</t>
   </si>
@@ -192,18 +192,12 @@
     <t>double[]</t>
   </si>
   <si>
-    <t>jiaowai_3</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
     <t>在人们眼中,这片区域有很深的危险,亲爱的冒险者,你准备好开始探险了嘛</t>
   </si>
   <si>
-    <t>dixiacheng_1</t>
-  </si>
-  <si>
     <t>10001,1002;10003,1010;10004,1001;10005,1011</t>
   </si>
   <si>
@@ -213,9 +207,6 @@
     <t>10001,1004;10002,1009;10003,1010;10005,1011</t>
   </si>
   <si>
-    <t>jiaowai_2</t>
-  </si>
-  <si>
     <t>10001,1004;10002,1009;10003,1010;10004,1005</t>
   </si>
   <si>
@@ -586,6 +577,41 @@
   <si>
     <t>LoadingRes</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Forest_1</t>
+  </si>
+  <si>
+    <t>Forest_3</t>
+  </si>
+  <si>
+    <t>Forest_4</t>
+  </si>
+  <si>
+    <t>Desert_1</t>
+  </si>
+  <si>
+    <t>Desert_2</t>
+  </si>
+  <si>
+    <t>Dungeon_1</t>
+  </si>
+  <si>
+    <t>Snow</t>
+  </si>
+  <si>
+    <t>Forest_5</t>
+  </si>
+  <si>
+    <t>Forest_4</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Forest_2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dungeon_2</t>
   </si>
 </sst>
 </file>
@@ -1277,8 +1303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:R37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1322,7 +1348,7 @@
         <v>7</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>8</v>
@@ -1372,7 +1398,7 @@
         <v>21</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>22</v>
@@ -1451,13 +1477,13 @@
         <v>10001</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E6" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>33</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>34</v>
       </c>
       <c r="G6" s="7">
         <v>1</v>
@@ -1466,7 +1492,7 @@
         <v>70001910</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J6" s="6">
         <v>10001</v>
@@ -1475,16 +1501,16 @@
         <v>101</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="N6" s="12">
         <v>10001</v>
       </c>
       <c r="O6" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P6" s="26">
         <v>1000101</v>
@@ -1501,13 +1527,13 @@
         <v>10002</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>36</v>
+        <v>145</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G7" s="11">
         <v>3</v>
@@ -1516,7 +1542,7 @@
         <v>70001920</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J7" s="6">
         <v>10002</v>
@@ -1525,16 +1551,16 @@
         <v>101</v>
       </c>
       <c r="L7" s="23" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="N7" s="12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="O7" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P7" s="26">
         <v>1000201</v>
@@ -1551,13 +1577,13 @@
         <v>10003</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>36</v>
+        <v>137</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G8" s="7">
         <v>5</v>
@@ -1566,7 +1592,7 @@
         <v>70001930</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J8" s="6">
         <v>10003</v>
@@ -1575,16 +1601,16 @@
         <v>101</v>
       </c>
       <c r="L8" s="24" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="N8" s="12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="O8" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="P8" s="26">
         <v>1000301</v>
@@ -1601,13 +1627,13 @@
         <v>10004</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E9" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="F9" s="9" t="s">
         <v>33</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>34</v>
       </c>
       <c r="G9" s="7">
         <v>6</v>
@@ -1616,7 +1642,7 @@
         <v>70001940</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J9" s="6">
         <v>10004</v>
@@ -1625,16 +1651,16 @@
         <v>101</v>
       </c>
       <c r="L9" s="24" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="N9" s="12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="O9" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P9" s="26">
         <v>1000401</v>
@@ -1651,13 +1677,13 @@
         <v>10005</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>40</v>
+        <v>138</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G10" s="7">
         <v>6</v>
@@ -1666,7 +1692,7 @@
         <v>70001950</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J10" s="6">
         <v>10005</v>
@@ -1675,16 +1701,16 @@
         <v>101</v>
       </c>
       <c r="L10" s="24" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="N10" s="10">
         <v>10014</v>
       </c>
       <c r="O10" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="P10" s="26">
         <v>1000501</v>
@@ -1701,13 +1727,13 @@
         <v>20001</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>33</v>
+        <v>139</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G11" s="25">
         <v>15</v>
@@ -1716,7 +1742,7 @@
         <v>70001910</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J11" s="6">
         <v>20001</v>
@@ -1725,10 +1751,10 @@
         <v>201</v>
       </c>
       <c r="L11" s="24" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="N11" s="12">
         <v>20001</v>
@@ -1749,13 +1775,13 @@
         <v>20002</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>36</v>
+        <v>139</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G12" s="25">
         <v>20</v>
@@ -1764,7 +1790,7 @@
         <v>70001920</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J12" s="6">
         <v>20002</v>
@@ -1773,13 +1799,13 @@
         <v>201</v>
       </c>
       <c r="L12" s="24" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="N12" s="12" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O12" s="13"/>
       <c r="P12" s="26">
@@ -1797,13 +1823,13 @@
         <v>20003</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>36</v>
+        <v>139</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G13" s="25">
         <v>23</v>
@@ -1812,7 +1838,7 @@
         <v>70001930</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J13" s="6">
         <v>20003</v>
@@ -1821,13 +1847,13 @@
         <v>201</v>
       </c>
       <c r="L13" s="24" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="N13" s="12" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="O13" s="13"/>
       <c r="P13" s="26">
@@ -1845,13 +1871,13 @@
         <v>20004</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>33</v>
+        <v>140</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G14" s="25">
         <v>25</v>
@@ -1860,7 +1886,7 @@
         <v>70001940</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J14" s="6">
         <v>20004</v>
@@ -1869,13 +1895,13 @@
         <v>201</v>
       </c>
       <c r="L14" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="N14" s="12" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="O14" s="13"/>
       <c r="P14" s="26">
@@ -1893,13 +1919,13 @@
         <v>20005</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G15" s="25">
         <v>27</v>
@@ -1908,7 +1934,7 @@
         <v>70001950</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J15" s="6">
         <v>20005</v>
@@ -1917,10 +1943,10 @@
         <v>201</v>
       </c>
       <c r="L15" s="24" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M15" s="10" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="N15" s="10">
         <v>20014</v>
@@ -1941,13 +1967,13 @@
         <v>30001</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>33</v>
+        <v>137</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G16" s="25">
         <v>30</v>
@@ -1956,7 +1982,7 @@
         <v>70001910</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J16" s="6">
         <v>30001</v>
@@ -1965,10 +1991,10 @@
         <v>301</v>
       </c>
       <c r="L16" s="24" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M16" s="12" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="N16" s="12">
         <v>30001</v>
@@ -1989,13 +2015,13 @@
         <v>30002</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>36</v>
+        <v>137</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G17" s="25">
         <v>32</v>
@@ -2004,7 +2030,7 @@
         <v>70001920</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J17" s="6">
         <v>30002</v>
@@ -2013,13 +2039,13 @@
         <v>301</v>
       </c>
       <c r="L17" s="24" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="M17" s="12" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="N17" s="12" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="O17" s="13"/>
       <c r="P17" s="26">
@@ -2037,13 +2063,13 @@
         <v>30003</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>36</v>
+        <v>141</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G18" s="25">
         <v>34</v>
@@ -2052,7 +2078,7 @@
         <v>70001930</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J18" s="6">
         <v>30003</v>
@@ -2061,13 +2087,13 @@
         <v>301</v>
       </c>
       <c r="L18" s="24" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="M18" s="12" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="N18" s="12" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="O18" s="13"/>
       <c r="P18" s="26">
@@ -2085,13 +2111,13 @@
         <v>30004</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G19" s="25">
         <v>35</v>
@@ -2100,7 +2126,7 @@
         <v>70001940</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J19" s="6">
         <v>30004</v>
@@ -2109,13 +2135,13 @@
         <v>301</v>
       </c>
       <c r="L19" s="24" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="M19" s="12" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="N19" s="12" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="O19" s="13"/>
       <c r="P19" s="26">
@@ -2133,13 +2159,13 @@
         <v>30005</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>40</v>
+        <v>141</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G20" s="25">
         <v>36</v>
@@ -2148,7 +2174,7 @@
         <v>70001950</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J20" s="6">
         <v>30005</v>
@@ -2157,10 +2183,10 @@
         <v>301</v>
       </c>
       <c r="L20" s="24" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="M20" s="12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="N20" s="10">
         <v>30014</v>
@@ -2181,13 +2207,13 @@
         <v>40001</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>33</v>
+        <v>142</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G21" s="25">
         <v>40</v>
@@ -2196,7 +2222,7 @@
         <v>70001910</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J21" s="6">
         <v>40001</v>
@@ -2205,10 +2231,10 @@
         <v>401</v>
       </c>
       <c r="L21" s="24" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="M21" s="10" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="N21" s="12">
         <v>40001</v>
@@ -2229,13 +2255,13 @@
         <v>40002</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>36</v>
+        <v>142</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G22" s="25">
         <v>42</v>
@@ -2244,7 +2270,7 @@
         <v>70001920</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J22" s="6">
         <v>40002</v>
@@ -2253,13 +2279,13 @@
         <v>401</v>
       </c>
       <c r="L22" s="24" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M22" s="10" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="N22" s="12" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="O22" s="13"/>
       <c r="P22" s="26">
@@ -2277,13 +2303,13 @@
         <v>40003</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>36</v>
+        <v>142</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G23" s="25">
         <v>44</v>
@@ -2292,7 +2318,7 @@
         <v>70001930</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J23" s="6">
         <v>40003</v>
@@ -2301,13 +2327,13 @@
         <v>401</v>
       </c>
       <c r="L23" s="24" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="M23" s="12" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="N23" s="12" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="O23" s="13"/>
       <c r="P23" s="26">
@@ -2325,13 +2351,13 @@
         <v>40004</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G24" s="25">
         <v>45</v>
@@ -2340,7 +2366,7 @@
         <v>70001940</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J24" s="6">
         <v>40004</v>
@@ -2349,13 +2375,13 @@
         <v>401</v>
       </c>
       <c r="L24" s="24" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M24" s="12" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="N24" s="12" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="O24" s="13"/>
       <c r="P24" s="26">
@@ -2373,13 +2399,13 @@
         <v>40005</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>40</v>
+        <v>141</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G25" s="25">
         <v>46</v>
@@ -2388,7 +2414,7 @@
         <v>70001950</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J25" s="6">
         <v>40005</v>
@@ -2397,10 +2423,10 @@
         <v>401</v>
       </c>
       <c r="L25" s="24" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="M25" s="10" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="N25" s="10">
         <v>40014</v>
@@ -2421,13 +2447,13 @@
         <v>50001</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>33</v>
+        <v>144</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G26" s="25">
         <v>50</v>
@@ -2436,7 +2462,7 @@
         <v>70001910</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J26" s="6">
         <v>50001</v>
@@ -2445,10 +2471,10 @@
         <v>501</v>
       </c>
       <c r="L26" s="24" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M26" s="10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="N26" s="12">
         <v>50001</v>
@@ -2469,13 +2495,13 @@
         <v>50002</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>36</v>
+        <v>143</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G27" s="25">
         <v>52</v>
@@ -2484,7 +2510,7 @@
         <v>70001920</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J27" s="6">
         <v>50002</v>
@@ -2493,13 +2519,13 @@
         <v>501</v>
       </c>
       <c r="L27" s="24" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="M27" s="10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="N27" s="12" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="O27" s="13"/>
       <c r="P27" s="26">
@@ -2517,13 +2543,13 @@
         <v>50003</v>
       </c>
       <c r="D28" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="F28" s="9" t="s">
         <v>80</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>83</v>
       </c>
       <c r="G28" s="25">
         <v>54</v>
@@ -2532,7 +2558,7 @@
         <v>70001930</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J28" s="6">
         <v>50003</v>
@@ -2541,13 +2567,13 @@
         <v>501</v>
       </c>
       <c r="L28" s="24" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="M28" s="10" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N28" s="12" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O28" s="13"/>
       <c r="P28" s="26">
@@ -2565,13 +2591,13 @@
         <v>50004</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G29" s="25">
         <v>55</v>
@@ -2580,7 +2606,7 @@
         <v>70001940</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J29" s="6">
         <v>50004</v>
@@ -2589,13 +2615,13 @@
         <v>501</v>
       </c>
       <c r="L29" s="24" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="M29" s="12" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="N29" s="12" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="O29" s="13"/>
       <c r="P29" s="26">
@@ -2613,13 +2639,13 @@
         <v>50005</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>40</v>
+        <v>141</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G30" s="25">
         <v>56</v>
@@ -2628,7 +2654,7 @@
         <v>70001950</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J30" s="6">
         <v>50005</v>
@@ -2637,10 +2663,10 @@
         <v>501</v>
       </c>
       <c r="L30" s="24" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M30" s="12" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N30" s="10">
         <v>50014</v>
@@ -2661,13 +2687,13 @@
         <v>100001</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>40</v>
+        <v>146</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G31" s="17">
         <v>1</v>
@@ -2676,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J31" s="14">
         <v>10001</v>
@@ -2685,10 +2711,10 @@
         <v>0</v>
       </c>
       <c r="L31" s="22" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M31" s="17" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="N31" s="17"/>
       <c r="O31" s="19"/>
@@ -2703,13 +2729,13 @@
         <v>100101</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>40</v>
+        <v>146</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G32" s="17">
         <v>1</v>
@@ -2718,7 +2744,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J32" s="14">
         <v>10001</v>
@@ -2727,10 +2753,10 @@
         <v>0</v>
       </c>
       <c r="L32" s="18" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M32" s="17" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="N32" s="17"/>
       <c r="O32" s="19"/>
@@ -2745,13 +2771,13 @@
         <v>100201</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>40</v>
+        <v>146</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G33" s="17">
         <v>18</v>
@@ -2760,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J33" s="14">
         <v>10001</v>
@@ -2769,10 +2795,10 @@
         <v>0</v>
       </c>
       <c r="L33" s="18" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M33" s="17" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="N33" s="17"/>
       <c r="O33" s="19"/>
@@ -2787,13 +2813,13 @@
         <v>100301</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>40</v>
+        <v>146</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G34" s="17">
         <v>30</v>
@@ -2802,7 +2828,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J34" s="14">
         <v>10001</v>
@@ -2811,10 +2837,10 @@
         <v>0</v>
       </c>
       <c r="L34" s="18" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M34" s="17" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="N34" s="17"/>
       <c r="O34" s="19"/>
@@ -2829,13 +2855,13 @@
         <v>100401</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>40</v>
+        <v>146</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G35" s="17">
         <v>40</v>
@@ -2844,7 +2870,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J35" s="14">
         <v>10001</v>
@@ -2853,10 +2879,10 @@
         <v>0</v>
       </c>
       <c r="L35" s="18" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M35" s="17" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="N35" s="17"/>
       <c r="O35" s="19"/>
@@ -2871,13 +2897,13 @@
         <v>100501</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>40</v>
+        <v>146</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G36" s="17">
         <v>50</v>
@@ -2886,7 +2912,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J36" s="14">
         <v>10001</v>
@@ -2895,10 +2921,10 @@
         <v>0</v>
       </c>
       <c r="L36" s="18" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M36" s="17" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="N36" s="17"/>
       <c r="O36" s="19"/>
@@ -2913,13 +2939,13 @@
         <v>100601</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>40</v>
+        <v>146</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G37" s="17">
         <v>60</v>
@@ -2928,7 +2954,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J37" s="14">
         <v>10001</v>
@@ -2937,10 +2963,10 @@
         <v>0</v>
       </c>
       <c r="L37" s="18" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M37" s="17" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="N37" s="17"/>
       <c r="O37" s="19"/>

--- a/Unity/Assets/Config/Excel/DungeonConfig.xlsx
+++ b/Unity/Assets/Config/Excel/DungeonConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB554AA5-C67B-4F4C-8B6F-909783D7BDFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A6F81D7-6BE6-4094-89BF-6ADB082E2AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1303,8 +1303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:R37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1748,7 +1748,7 @@
         <v>20001</v>
       </c>
       <c r="K11" s="28">
-        <v>201</v>
+        <v>102</v>
       </c>
       <c r="L11" s="24" t="s">
         <v>81</v>
@@ -1796,7 +1796,7 @@
         <v>20002</v>
       </c>
       <c r="K12" s="28">
-        <v>201</v>
+        <v>102</v>
       </c>
       <c r="L12" s="24" t="s">
         <v>82</v>
@@ -1844,7 +1844,7 @@
         <v>20003</v>
       </c>
       <c r="K13" s="28">
-        <v>201</v>
+        <v>102</v>
       </c>
       <c r="L13" s="24" t="s">
         <v>83</v>
@@ -1892,7 +1892,7 @@
         <v>20004</v>
       </c>
       <c r="K14" s="28">
-        <v>201</v>
+        <v>102</v>
       </c>
       <c r="L14" s="23" t="s">
         <v>84</v>
@@ -1940,7 +1940,7 @@
         <v>20005</v>
       </c>
       <c r="K15" s="28">
-        <v>201</v>
+        <v>102</v>
       </c>
       <c r="L15" s="24" t="s">
         <v>85</v>
@@ -1988,7 +1988,7 @@
         <v>30001</v>
       </c>
       <c r="K16" s="28">
-        <v>301</v>
+        <v>103</v>
       </c>
       <c r="L16" s="24" t="s">
         <v>86</v>
@@ -2036,7 +2036,7 @@
         <v>30002</v>
       </c>
       <c r="K17" s="28">
-        <v>301</v>
+        <v>103</v>
       </c>
       <c r="L17" s="24" t="s">
         <v>87</v>
@@ -2084,7 +2084,7 @@
         <v>30003</v>
       </c>
       <c r="K18" s="28">
-        <v>301</v>
+        <v>103</v>
       </c>
       <c r="L18" s="24" t="s">
         <v>88</v>
@@ -2132,7 +2132,7 @@
         <v>30004</v>
       </c>
       <c r="K19" s="28">
-        <v>301</v>
+        <v>103</v>
       </c>
       <c r="L19" s="24" t="s">
         <v>133</v>
@@ -2180,7 +2180,7 @@
         <v>30005</v>
       </c>
       <c r="K20" s="28">
-        <v>301</v>
+        <v>103</v>
       </c>
       <c r="L20" s="24" t="s">
         <v>89</v>
@@ -2228,7 +2228,7 @@
         <v>40001</v>
       </c>
       <c r="K21" s="27">
-        <v>401</v>
+        <v>104</v>
       </c>
       <c r="L21" s="24" t="s">
         <v>90</v>
@@ -2276,7 +2276,7 @@
         <v>40002</v>
       </c>
       <c r="K22" s="27">
-        <v>401</v>
+        <v>104</v>
       </c>
       <c r="L22" s="24" t="s">
         <v>91</v>
@@ -2324,7 +2324,7 @@
         <v>40003</v>
       </c>
       <c r="K23" s="27">
-        <v>401</v>
+        <v>104</v>
       </c>
       <c r="L23" s="24" t="s">
         <v>92</v>
@@ -2372,7 +2372,7 @@
         <v>40004</v>
       </c>
       <c r="K24" s="27">
-        <v>401</v>
+        <v>104</v>
       </c>
       <c r="L24" s="24" t="s">
         <v>99</v>
@@ -2420,7 +2420,7 @@
         <v>40005</v>
       </c>
       <c r="K25" s="27">
-        <v>401</v>
+        <v>104</v>
       </c>
       <c r="L25" s="24" t="s">
         <v>93</v>
@@ -2468,7 +2468,7 @@
         <v>50001</v>
       </c>
       <c r="K26" s="27">
-        <v>501</v>
+        <v>105</v>
       </c>
       <c r="L26" s="24" t="s">
         <v>94</v>
@@ -2516,7 +2516,7 @@
         <v>50002</v>
       </c>
       <c r="K27" s="27">
-        <v>501</v>
+        <v>105</v>
       </c>
       <c r="L27" s="24" t="s">
         <v>95</v>
@@ -2564,7 +2564,7 @@
         <v>50003</v>
       </c>
       <c r="K28" s="27">
-        <v>501</v>
+        <v>105</v>
       </c>
       <c r="L28" s="24" t="s">
         <v>96</v>
@@ -2612,7 +2612,7 @@
         <v>50004</v>
       </c>
       <c r="K29" s="27">
-        <v>501</v>
+        <v>105</v>
       </c>
       <c r="L29" s="24" t="s">
         <v>97</v>
@@ -2660,7 +2660,7 @@
         <v>50005</v>
       </c>
       <c r="K30" s="27">
-        <v>501</v>
+        <v>105</v>
       </c>
       <c r="L30" s="24" t="s">
         <v>98</v>

--- a/Unity/Assets/Config/Excel/DungeonConfig.xlsx
+++ b/Unity/Assets/Config/Excel/DungeonConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A6F81D7-6BE6-4094-89BF-6ADB082E2AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA9BB730-F7C1-4EEE-87A8-AB04F323DC15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -195,9 +195,6 @@
     <t>0</t>
   </si>
   <si>
-    <t>在人们眼中,这片区域有很深的危险,亲爱的冒险者,你准备好开始探险了嘛</t>
-  </si>
-  <si>
     <t>10001,1002;10003,1010;10004,1001;10005,1011</t>
   </si>
   <si>
@@ -612,6 +609,10 @@
   </si>
   <si>
     <t>Dungeon_2</t>
+  </si>
+  <si>
+    <t>在人们眼中,这片区域有很深的危险,亲爱的冒险者,你准备好开始探险了吗?</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1303,8 +1304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:R37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1312,7 +1313,7 @@
     <col min="3" max="3" width="7.5" customWidth="1"/>
     <col min="4" max="6" width="16.75" customWidth="1"/>
     <col min="7" max="8" width="17.25" customWidth="1"/>
-    <col min="9" max="9" width="37.25" customWidth="1"/>
+    <col min="9" max="9" width="57.125" customWidth="1"/>
     <col min="10" max="10" width="17.25" customWidth="1"/>
     <col min="11" max="11" width="16.75" customWidth="1"/>
     <col min="12" max="12" width="17.25" customWidth="1"/>
@@ -1348,7 +1349,7 @@
         <v>7</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>8</v>
@@ -1398,7 +1399,7 @@
         <v>21</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>22</v>
@@ -1477,10 +1478,10 @@
         <v>10001</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>33</v>
@@ -1492,7 +1493,7 @@
         <v>70001910</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>34</v>
+        <v>146</v>
       </c>
       <c r="J6" s="6">
         <v>10001</v>
@@ -1501,16 +1502,16 @@
         <v>101</v>
       </c>
       <c r="L6" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="M6" s="10" t="s">
         <v>45</v>
-      </c>
-      <c r="M6" s="10" t="s">
-        <v>46</v>
       </c>
       <c r="N6" s="12">
         <v>10001</v>
       </c>
       <c r="O6" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P6" s="26">
         <v>1000101</v>
@@ -1527,10 +1528,10 @@
         <v>10002</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>33</v>
@@ -1542,7 +1543,7 @@
         <v>70001920</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>34</v>
+        <v>146</v>
       </c>
       <c r="J7" s="6">
         <v>10002</v>
@@ -1551,16 +1552,16 @@
         <v>101</v>
       </c>
       <c r="L7" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N7" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O7" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P7" s="26">
         <v>1000201</v>
@@ -1577,10 +1578,10 @@
         <v>10003</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>33</v>
@@ -1592,7 +1593,7 @@
         <v>70001930</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>34</v>
+        <v>146</v>
       </c>
       <c r="J8" s="6">
         <v>10003</v>
@@ -1601,16 +1602,16 @@
         <v>101</v>
       </c>
       <c r="L8" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N8" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O8" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P8" s="26">
         <v>1000301</v>
@@ -1627,10 +1628,10 @@
         <v>10004</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>33</v>
@@ -1642,7 +1643,7 @@
         <v>70001940</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>34</v>
+        <v>146</v>
       </c>
       <c r="J9" s="6">
         <v>10004</v>
@@ -1651,16 +1652,16 @@
         <v>101</v>
       </c>
       <c r="L9" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N9" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O9" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P9" s="26">
         <v>1000401</v>
@@ -1677,10 +1678,10 @@
         <v>10005</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>33</v>
@@ -1692,7 +1693,7 @@
         <v>70001950</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>34</v>
+        <v>146</v>
       </c>
       <c r="J10" s="6">
         <v>10005</v>
@@ -1701,16 +1702,16 @@
         <v>101</v>
       </c>
       <c r="L10" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N10" s="10">
         <v>10014</v>
       </c>
       <c r="O10" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P10" s="26">
         <v>1000501</v>
@@ -1727,13 +1728,13 @@
         <v>20001</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G11" s="25">
         <v>15</v>
@@ -1742,7 +1743,7 @@
         <v>70001910</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>34</v>
+        <v>146</v>
       </c>
       <c r="J11" s="6">
         <v>20001</v>
@@ -1751,10 +1752,10 @@
         <v>102</v>
       </c>
       <c r="L11" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N11" s="12">
         <v>20001</v>
@@ -1775,13 +1776,13 @@
         <v>20002</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G12" s="25">
         <v>20</v>
@@ -1790,7 +1791,7 @@
         <v>70001920</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>34</v>
+        <v>146</v>
       </c>
       <c r="J12" s="6">
         <v>20002</v>
@@ -1799,13 +1800,13 @@
         <v>102</v>
       </c>
       <c r="L12" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N12" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O12" s="13"/>
       <c r="P12" s="26">
@@ -1823,13 +1824,13 @@
         <v>20003</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G13" s="25">
         <v>23</v>
@@ -1838,7 +1839,7 @@
         <v>70001930</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>34</v>
+        <v>146</v>
       </c>
       <c r="J13" s="6">
         <v>20003</v>
@@ -1847,13 +1848,13 @@
         <v>102</v>
       </c>
       <c r="L13" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N13" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O13" s="13"/>
       <c r="P13" s="26">
@@ -1871,13 +1872,13 @@
         <v>20004</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G14" s="25">
         <v>25</v>
@@ -1886,7 +1887,7 @@
         <v>70001940</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>34</v>
+        <v>146</v>
       </c>
       <c r="J14" s="6">
         <v>20004</v>
@@ -1895,13 +1896,13 @@
         <v>102</v>
       </c>
       <c r="L14" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N14" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O14" s="13"/>
       <c r="P14" s="26">
@@ -1919,13 +1920,13 @@
         <v>20005</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G15" s="25">
         <v>27</v>
@@ -1934,7 +1935,7 @@
         <v>70001950</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>34</v>
+        <v>146</v>
       </c>
       <c r="J15" s="6">
         <v>20005</v>
@@ -1943,10 +1944,10 @@
         <v>102</v>
       </c>
       <c r="L15" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M15" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N15" s="10">
         <v>20014</v>
@@ -1967,13 +1968,13 @@
         <v>30001</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G16" s="25">
         <v>30</v>
@@ -1982,7 +1983,7 @@
         <v>70001910</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>34</v>
+        <v>146</v>
       </c>
       <c r="J16" s="6">
         <v>30001</v>
@@ -1991,10 +1992,10 @@
         <v>103</v>
       </c>
       <c r="L16" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M16" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N16" s="12">
         <v>30001</v>
@@ -2015,13 +2016,13 @@
         <v>30002</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G17" s="25">
         <v>32</v>
@@ -2030,7 +2031,7 @@
         <v>70001920</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>34</v>
+        <v>146</v>
       </c>
       <c r="J17" s="6">
         <v>30002</v>
@@ -2039,13 +2040,13 @@
         <v>103</v>
       </c>
       <c r="L17" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M17" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N17" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O17" s="13"/>
       <c r="P17" s="26">
@@ -2063,13 +2064,13 @@
         <v>30003</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G18" s="25">
         <v>34</v>
@@ -2078,7 +2079,7 @@
         <v>70001930</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>34</v>
+        <v>146</v>
       </c>
       <c r="J18" s="6">
         <v>30003</v>
@@ -2087,13 +2088,13 @@
         <v>103</v>
       </c>
       <c r="L18" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M18" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N18" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O18" s="13"/>
       <c r="P18" s="26">
@@ -2111,13 +2112,13 @@
         <v>30004</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G19" s="25">
         <v>35</v>
@@ -2126,7 +2127,7 @@
         <v>70001940</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>34</v>
+        <v>146</v>
       </c>
       <c r="J19" s="6">
         <v>30004</v>
@@ -2135,13 +2136,13 @@
         <v>103</v>
       </c>
       <c r="L19" s="24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M19" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N19" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O19" s="13"/>
       <c r="P19" s="26">
@@ -2159,13 +2160,13 @@
         <v>30005</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G20" s="25">
         <v>36</v>
@@ -2174,7 +2175,7 @@
         <v>70001950</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>34</v>
+        <v>146</v>
       </c>
       <c r="J20" s="6">
         <v>30005</v>
@@ -2183,10 +2184,10 @@
         <v>103</v>
       </c>
       <c r="L20" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M20" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N20" s="10">
         <v>30014</v>
@@ -2207,13 +2208,13 @@
         <v>40001</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G21" s="25">
         <v>40</v>
@@ -2222,7 +2223,7 @@
         <v>70001910</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>34</v>
+        <v>146</v>
       </c>
       <c r="J21" s="6">
         <v>40001</v>
@@ -2231,10 +2232,10 @@
         <v>104</v>
       </c>
       <c r="L21" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M21" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N21" s="12">
         <v>40001</v>
@@ -2255,13 +2256,13 @@
         <v>40002</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G22" s="25">
         <v>42</v>
@@ -2270,7 +2271,7 @@
         <v>70001920</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>34</v>
+        <v>146</v>
       </c>
       <c r="J22" s="6">
         <v>40002</v>
@@ -2279,13 +2280,13 @@
         <v>104</v>
       </c>
       <c r="L22" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M22" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N22" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O22" s="13"/>
       <c r="P22" s="26">
@@ -2303,13 +2304,13 @@
         <v>40003</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G23" s="25">
         <v>44</v>
@@ -2318,7 +2319,7 @@
         <v>70001930</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>34</v>
+        <v>146</v>
       </c>
       <c r="J23" s="6">
         <v>40003</v>
@@ -2327,13 +2328,13 @@
         <v>104</v>
       </c>
       <c r="L23" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M23" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N23" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O23" s="13"/>
       <c r="P23" s="26">
@@ -2351,13 +2352,13 @@
         <v>40004</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G24" s="25">
         <v>45</v>
@@ -2366,7 +2367,7 @@
         <v>70001940</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>34</v>
+        <v>146</v>
       </c>
       <c r="J24" s="6">
         <v>40004</v>
@@ -2375,13 +2376,13 @@
         <v>104</v>
       </c>
       <c r="L24" s="24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M24" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N24" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O24" s="13"/>
       <c r="P24" s="26">
@@ -2399,13 +2400,13 @@
         <v>40005</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G25" s="25">
         <v>46</v>
@@ -2414,7 +2415,7 @@
         <v>70001950</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>34</v>
+        <v>146</v>
       </c>
       <c r="J25" s="6">
         <v>40005</v>
@@ -2423,10 +2424,10 @@
         <v>104</v>
       </c>
       <c r="L25" s="24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M25" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N25" s="10">
         <v>40014</v>
@@ -2447,13 +2448,13 @@
         <v>50001</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G26" s="25">
         <v>50</v>
@@ -2462,7 +2463,7 @@
         <v>70001910</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>34</v>
+        <v>146</v>
       </c>
       <c r="J26" s="6">
         <v>50001</v>
@@ -2471,10 +2472,10 @@
         <v>105</v>
       </c>
       <c r="L26" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M26" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N26" s="12">
         <v>50001</v>
@@ -2495,13 +2496,13 @@
         <v>50002</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G27" s="25">
         <v>52</v>
@@ -2510,7 +2511,7 @@
         <v>70001920</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>34</v>
+        <v>146</v>
       </c>
       <c r="J27" s="6">
         <v>50002</v>
@@ -2519,13 +2520,13 @@
         <v>105</v>
       </c>
       <c r="L27" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M27" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N27" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O27" s="13"/>
       <c r="P27" s="26">
@@ -2543,13 +2544,13 @@
         <v>50003</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G28" s="25">
         <v>54</v>
@@ -2558,7 +2559,7 @@
         <v>70001930</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>34</v>
+        <v>146</v>
       </c>
       <c r="J28" s="6">
         <v>50003</v>
@@ -2567,13 +2568,13 @@
         <v>105</v>
       </c>
       <c r="L28" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M28" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N28" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O28" s="13"/>
       <c r="P28" s="26">
@@ -2591,13 +2592,13 @@
         <v>50004</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G29" s="25">
         <v>55</v>
@@ -2606,7 +2607,7 @@
         <v>70001940</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>34</v>
+        <v>146</v>
       </c>
       <c r="J29" s="6">
         <v>50004</v>
@@ -2615,13 +2616,13 @@
         <v>105</v>
       </c>
       <c r="L29" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M29" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N29" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O29" s="13"/>
       <c r="P29" s="26">
@@ -2639,13 +2640,13 @@
         <v>50005</v>
       </c>
       <c r="D30" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="F30" s="9" t="s">
         <v>79</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>80</v>
       </c>
       <c r="G30" s="25">
         <v>56</v>
@@ -2654,7 +2655,7 @@
         <v>70001950</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>34</v>
+        <v>146</v>
       </c>
       <c r="J30" s="6">
         <v>50005</v>
@@ -2663,10 +2664,10 @@
         <v>105</v>
       </c>
       <c r="L30" s="24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M30" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N30" s="10">
         <v>50014</v>
@@ -2687,13 +2688,13 @@
         <v>100001</v>
       </c>
       <c r="D31" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="F31" s="16" t="s">
         <v>40</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="F31" s="16" t="s">
-        <v>41</v>
       </c>
       <c r="G31" s="17">
         <v>1</v>
@@ -2701,8 +2702,8 @@
       <c r="H31" s="17">
         <v>0</v>
       </c>
-      <c r="I31" s="16" t="s">
-        <v>34</v>
+      <c r="I31" s="17" t="s">
+        <v>146</v>
       </c>
       <c r="J31" s="14">
         <v>10001</v>
@@ -2711,10 +2712,10 @@
         <v>0</v>
       </c>
       <c r="L31" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M31" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N31" s="17"/>
       <c r="O31" s="19"/>
@@ -2729,10 +2730,10 @@
         <v>100101</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F32" s="16" t="s">
         <v>33</v>
@@ -2743,8 +2744,8 @@
       <c r="H32" s="17">
         <v>0</v>
       </c>
-      <c r="I32" s="16" t="s">
-        <v>34</v>
+      <c r="I32" s="17" t="s">
+        <v>146</v>
       </c>
       <c r="J32" s="14">
         <v>10001</v>
@@ -2753,10 +2754,10 @@
         <v>0</v>
       </c>
       <c r="L32" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M32" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N32" s="17"/>
       <c r="O32" s="19"/>
@@ -2771,10 +2772,10 @@
         <v>100201</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F33" s="16" t="s">
         <v>33</v>
@@ -2785,8 +2786,8 @@
       <c r="H33" s="17">
         <v>0</v>
       </c>
-      <c r="I33" s="16" t="s">
-        <v>34</v>
+      <c r="I33" s="17" t="s">
+        <v>146</v>
       </c>
       <c r="J33" s="14">
         <v>10001</v>
@@ -2795,10 +2796,10 @@
         <v>0</v>
       </c>
       <c r="L33" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M33" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N33" s="17"/>
       <c r="O33" s="19"/>
@@ -2813,10 +2814,10 @@
         <v>100301</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F34" s="16" t="s">
         <v>33</v>
@@ -2827,8 +2828,8 @@
       <c r="H34" s="17">
         <v>0</v>
       </c>
-      <c r="I34" s="16" t="s">
-        <v>34</v>
+      <c r="I34" s="17" t="s">
+        <v>146</v>
       </c>
       <c r="J34" s="14">
         <v>10001</v>
@@ -2837,10 +2838,10 @@
         <v>0</v>
       </c>
       <c r="L34" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M34" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N34" s="17"/>
       <c r="O34" s="19"/>
@@ -2855,10 +2856,10 @@
         <v>100401</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F35" s="16" t="s">
         <v>33</v>
@@ -2869,8 +2870,8 @@
       <c r="H35" s="17">
         <v>0</v>
       </c>
-      <c r="I35" s="16" t="s">
-        <v>34</v>
+      <c r="I35" s="17" t="s">
+        <v>146</v>
       </c>
       <c r="J35" s="14">
         <v>10001</v>
@@ -2879,10 +2880,10 @@
         <v>0</v>
       </c>
       <c r="L35" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M35" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N35" s="17"/>
       <c r="O35" s="19"/>
@@ -2897,10 +2898,10 @@
         <v>100501</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F36" s="16" t="s">
         <v>33</v>
@@ -2911,8 +2912,8 @@
       <c r="H36" s="17">
         <v>0</v>
       </c>
-      <c r="I36" s="16" t="s">
-        <v>34</v>
+      <c r="I36" s="17" t="s">
+        <v>146</v>
       </c>
       <c r="J36" s="14">
         <v>10001</v>
@@ -2921,10 +2922,10 @@
         <v>0</v>
       </c>
       <c r="L36" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M36" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N36" s="17"/>
       <c r="O36" s="19"/>
@@ -2939,10 +2940,10 @@
         <v>100601</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F37" s="16" t="s">
         <v>33</v>
@@ -2953,8 +2954,8 @@
       <c r="H37" s="17">
         <v>0</v>
       </c>
-      <c r="I37" s="16" t="s">
-        <v>34</v>
+      <c r="I37" s="17" t="s">
+        <v>146</v>
       </c>
       <c r="J37" s="14">
         <v>10001</v>
@@ -2963,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="L37" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M37" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N37" s="17"/>
       <c r="O37" s="19"/>
